--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB5C34-8B79-6343-9BDE-0491BA2DB32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82F097-C169-984E-A0D0-62B75FB7D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="172">
   <si>
     <t>Category</t>
   </si>
@@ -1291,6 +1291,50 @@
   </si>
   <si>
     <t>generating permutations. Or adding all the way up.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def rob(self, nums: List[int]) -&gt; int:
+        def robHelp(i, result):
+            if i&gt;len(nums)-1:
+                return result
+            return max(robHelp(i+2, result+nums[i]),robHelp(i+1, result))
+        return robHelp(0,0)</t>
+  </si>
+  <si>
+    <t>House Robber </t>
+  </si>
+  <si>
+    <t>Good problem to understand</t>
+  </si>
+  <si>
+    <t>DP - O(1) solution
+class Solution:
+    def rob(self, nums: List[int]) -&gt; int:
+        #rob2 is previous house we robbed. rob1 is before that
+        rob1, rob2 = 0, 0
+        for n in nums:
+            temp = max(n + rob1, rob2)
+            rob1 = rob2
+            rob2 = temp
+        return rob2
+DP - O(n) solution:
+class Solution:
+    def rob(self, nums: List[int]) -&gt; int:
+        n=len(nums)
+        if n==0:
+            return 0
+        elif n==1:
+            return nums[0]
+        dp=[0]*n
+        dp[0]=nums[0]
+        dp[1]=max(nums[0],nums[1])
+        for i in range(2,n):
+            dp[i]=max(dp[i-1],nums[i]+dp[i-2])
+        return dp[n-1]</t>
+  </si>
+  <si>
+    <t>read O(n) space solution, then try O(1) solution</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2492,7 +2536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -2512,7 +2556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -2535,7 +2579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -2558,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -2578,7 +2622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -2601,7 +2645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -2621,7 +2665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -2644,47 +2688,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
         <v>13</v>
       </c>
@@ -3061,6 +3126,7 @@
     <hyperlink ref="B36" r:id="rId36" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
     <hyperlink ref="B38" r:id="rId37" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
     <hyperlink ref="B39" r:id="rId38" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82F097-C169-984E-A0D0-62B75FB7D716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C551FA1-2E4B-FD40-93ED-0BB9F1DF3A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="175">
   <si>
     <t>Category</t>
   </si>
@@ -1335,6 +1335,26 @@
   </si>
   <si>
     <t>read O(n) space solution, then try O(1) solution</t>
+  </si>
+  <si>
+    <t>same as house robber, we can either pick first or last element though, so calculate 2 results, 1 without first element, 1 without last element.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def rob(self, nums: List[int]) -&gt; int:
+        def robHelper(nums):
+            rob1, rob2 = 0, 0
+            for n in nums:
+                temp = max(n + rob1, rob2)
+                rob1 = rob2
+                rob2 = temp
+            return rob2
+        if len(nums)==1:
+            return nums[0]
+        return max(robHelper(nums[1:]),robHelper(nums[:-1]))</t>
+  </si>
+  <si>
+    <t>House Robber II </t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1794,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2715,7 +2735,22 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3127,6 +3162,7 @@
     <hyperlink ref="B38" r:id="rId37" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
     <hyperlink ref="B39" r:id="rId38" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
     <hyperlink ref="B40" r:id="rId39" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C551FA1-2E4B-FD40-93ED-0BB9F1DF3A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46038C82-5AF3-EE43-BF3E-7D5D5084E81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
   <si>
     <t>Category</t>
   </si>
@@ -1355,6 +1355,76 @@
   </si>
   <si>
     <t>House Robber II </t>
+  </si>
+  <si>
+    <t>class Solution:
+    def longestPalindrome(self, s: str) -&gt; str:
+        res = ""
+        resLen = 0
+        for i in range(len(s)):
+            # odd length
+            l, r = i, i
+            while l &gt;= 0 and r &lt; len(s) and s[l] == s[r]:
+                if (r - l + 1) &gt; resLen:
+                    res = s[l : r + 1]
+                    resLen = r - l + 1
+                l -= 1
+                r += 1
+            # even length
+            l, r = i, i + 1
+            while l &gt;= 0 and r &lt; len(s) and s[l] == s[r]:
+                if (r - l + 1) &gt; resLen:
+                    res = s[l : r + 1]
+                    resLen = r - l + 1
+                l -= 1
+                r += 1
+        return res</t>
+  </si>
+  <si>
+    <t>check at every index using two pointers for longest odd or even substring</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def countSubstrings(self, s: str) -&gt; int:
+        resSet=set()
+        res = ""
+        resLen = 0
+        resCount = 0
+        for i in range(len(s)):
+            # odd length
+            l, r = i, i
+            while l &gt;= 0 and r &lt; len(s) and s[l] == s[r]:
+                if (r - l + 1) &gt; resLen:
+                    resSet.add(s[l : r + 1])
+                    resCount+=1
+                    # res = s[l : r + 1]
+                    # resLen = r - l + 1
+                l -= 1
+                r += 1
+            # even length
+            l, r = i, i + 1
+            while l &gt;= 0 and r &lt; len(s) and s[l] == s[r]:
+                if (r - l + 1) &gt; resLen:
+                    resSet.add(s[l : r + 1])
+                    resCount+=1
+                    # res = s[l : r + 1]
+                    # resLen = r - l + 1
+                l -= 1
+                r += 1
+        return resCount
+        </t>
+  </si>
+  <si>
+    <t>use longest palindromic substring code and append for every substring instead</t>
+  </si>
+  <si>
+    <t>generate all substrings and check for palindrome</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings </t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1864,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2755,12 +2825,48 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
+      <c r="G42" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3163,6 +3269,8 @@
     <hyperlink ref="B39" r:id="rId38" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
     <hyperlink ref="B40" r:id="rId39" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
     <hyperlink ref="B41" r:id="rId40" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://neetcode.io/problems/longest-palindromic-substring" xr:uid="{F46C0D3D-86BE-5F41-BBEA-BD6B55855415}"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://neetcode.io/problems/palindromic-substrings" xr:uid="{D6FD2856-17D2-6043-BF6C-324D31927E5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46038C82-5AF3-EE43-BF3E-7D5D5084E81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D5C27-EDB9-BB4C-946B-A24A18E34AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23920" yWindow="1000" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="193">
   <si>
     <t>Category</t>
   </si>
@@ -1425,6 +1425,84 @@
   </si>
   <si>
     <t>Palindromic Substrings </t>
+  </si>
+  <si>
+    <t>class Solution:
+    def numDecodings(self, s: str) -&gt; int:
+        dp = [1] * (len(s) + 1)             # DP Array of size (n+1) initialized to 1
+        if s[0] == "0": dp[1] = 0           # Checks for empty string
+        for i in range(2, len(s) + 1):
+            dp[i] = (dp[i - 1] if 1 &lt;= int(s[i - 1]) &lt;= 9 else 0) + (dp[i - 2] if 10 &lt;= int(s[i - 2] + s[i - 1]) &lt;= 26 else 0)
+        return dp[-1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Solution:
+    def numDecodings(self, s: str) -&gt; int:
+        if not s or s[0] == "0":
+            return 0
+        prev = 1  # dp[i - 2], for an empty string there's 1 way to decode it (doing nothing)
+        curr = 1  # dp[i - 1], there's 1 way to decode a non-zero character if it's valid
+        for i in range(1, len(s)):
+            temp = curr  # store the current number of ways
+            if s[i] == "0":
+                curr = 0  # if the current character is '0', we can't decode it alone
+            if 10 &lt;= int(s[i - 1:i + 1]) &lt;= 26:
+                curr += prev  # if the two-character number is valid, add ways from dp[i-2]
+            prev = temp  # move to the next character
+        return curr</t>
+  </si>
+  <si>
+    <t>Use two variables to track the number of ways to decode up to the previous and current position, updating them based on whether the last one or two characters form valid numbers. This reduces space complexity while maintaining the solution's correctness.</t>
+  </si>
+  <si>
+    <t>Decode Ways </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def coinChange(self, coins: List[int], amount: int) -&gt; int:
+        dp=[float('inf')]*(amount+1)
+        dp[0]=0
+        #coins.sort()
+        for i in range(1,amount+1):
+            for coin in coins:
+                if i&gt;=coin:
+                    dp[i]=min(dp[i],1+dp[i-coin])
+                # else:
+                #     break
+        return dp[amount] if dp[amount]!=float('inf') else -1
+</t>
+  </si>
+  <si>
+    <t>Coin Change </t>
+  </si>
+  <si>
+    <t>1. The code finds the minimum number of coins needed to make a specific amount using given coin denominations.
+2. It uses a list, `dp`, to track the least number of coins needed for each amount up to the target.
+3. It initializes `dp[0]` to 0 (no coins needed for zero amount) and others to infinity.
+4. For each amount, it checks if using any coin can reduce the total number of coins needed.
+5. If the target amount is achievable, it returns the minimum number of coins; otherwise, it returns -1.</t>
+  </si>
+  <si>
+    <t>two for loops, iterate through all subarrays</t>
+  </si>
+  <si>
+    <t>brute force+keep track of maxproductsubarray as well as min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Solution:
+    def maxProduct(self, nums: List[int]) -&gt; int:
+        # O(n)/O(1) : Time/Memory
+        res = nums[0] #helps avoid a case where array has just a negative 1 or something
+        curMin, curMax = 1, 1 #neutral value. which can keep product as itself. obviously we can't use 0 here
+        for n in nums:
+            tmp = curMax * n
+            curMax = max(n * curMax, n * curMin, n)
+            curMin = min(tmp, n * curMin, n)
+            res = max(res, curMax)
+        return res</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray </t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1942,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2871,17 +2949,68 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="F44" t="s">
         <v>13</v>
       </c>
+      <c r="G44" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="F45" t="s">
         <v>13</v>
       </c>
+      <c r="G45" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3271,6 +3400,9 @@
     <hyperlink ref="B41" r:id="rId40" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
     <hyperlink ref="B42" r:id="rId41" display="https://neetcode.io/problems/longest-palindromic-substring" xr:uid="{F46C0D3D-86BE-5F41-BBEA-BD6B55855415}"/>
     <hyperlink ref="B43" r:id="rId42" display="https://neetcode.io/problems/palindromic-substrings" xr:uid="{D6FD2856-17D2-6043-BF6C-324D31927E5D}"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://neetcode.io/problems/decode-ways" xr:uid="{CC50AEDC-C49C-8D49-96D9-42474B633467}"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://neetcode.io/problems/coin-change" xr:uid="{92C09128-F580-9945-B7DE-F75887FDE2F5}"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{0A0BAAB7-8A55-0B4A-99C2-5045410717B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D5C27-EDB9-BB4C-946B-A24A18E34AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02D725A-53D6-5F49-9C3C-5175A344A206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23920" yWindow="1000" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="199">
   <si>
     <t>Category</t>
   </si>
@@ -1503,6 +1503,35 @@
   </si>
   <si>
     <t>Maximum Product Subarray </t>
+  </si>
+  <si>
+    <t>Word Break </t>
+  </si>
+  <si>
+    <t>multiple combinations of substrings and checking everyword</t>
+  </si>
+  <si>
+    <t>try for testcase 'leetcode' and ['code','leetc','leetcode']</t>
+  </si>
+  <si>
+    <t>General note for all probs: pending: understand every problem in depth, traverse line by line. Multiple testcases, edge cases. Document it</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def wordBreak(self, s: str, wordDict: List[str]) -&gt; bool:
+        dp = [False] * (len(s) + 1)
+        dp[len(s)] = True #goal is to place a true flag after each word we identify
+        for i in range(len(s) - 1, -1, -1): #start from end. so we place true flag at start. easier to do this than adjust indices if we had placed true flag at 0 and returned n index flag
+            for w in wordDict:
+                if dp[i]:
+                    break
+                if (i + len(w)) &lt;= len(s) and s[i : i + len(w)] == w: #first condition is a quick check to determine whether to check for the word or not
+                    dp[i] = dp[i + len(w)]
+        return dp[0]</t>
+  </si>
+  <si>
+    <t>The algorithm uses dynamic programming to determine if the string `s` can be segmented into words from `wordDict`. It initializes a boolean array `dp` where `dp[i]` is `True` if the substring `s[i:]` can be segmented. Starting from the end of `s`, it iterates backward, checking if each word in `wordDict` matches the substring starting at `i` and if the remaining substring can be segmented (`dp[i + len(w)]`). If a match is found, `dp[i]` is set to `True`, and the search stops early for that index. The result is given by `dp[0]`.
+The algorithm uses dynamic programming to determine if the string s can be segmented into words from wordDict. It initializes a boolean array dp where dp[i] is True if the substring s[i:] can be segmented. Starting from the end of s, it iterates backward, checking if each word in wordDict matches the substring starting at i and if the remaining substring can be segmented (dp[i + len(w)]). If a match is found, dp[i] is set to True, and the search stops early for that index. The result is given by dp[0].</t>
   </si>
 </sst>
 </file>
@@ -1546,9 +1575,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1631,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1941,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2301,6 +2329,9 @@
       <c r="G14" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="J14" s="11" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2507,7 +2538,7 @@
       <c r="A24" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3015,8 +3046,29 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="F47" t="s">
         <v>13</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,29 +3432,30 @@
     <hyperlink ref="B21" r:id="rId20" display="https://neetcode.io/problems/is-anagram" xr:uid="{2B57C655-1386-C947-858F-4317FDFB0D92}"/>
     <hyperlink ref="B22" r:id="rId21" display="https://neetcode.io/problems/two-integer-sum" xr:uid="{527061F0-9AAF-1A40-A47D-95537613298E}"/>
     <hyperlink ref="B23" r:id="rId22" display="https://neetcode.io/problems/anagram-groups" xr:uid="{70FC1425-DCD0-9543-BF04-BD7D6821FAF1}"/>
-    <hyperlink ref="B24" r:id="rId23" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{E953D456-BAC4-2F43-9A19-DF33BD3496C6}"/>
-    <hyperlink ref="B25" r:id="rId24" display="https://neetcode.io/problems/products-of-array-discluding-self" xr:uid="{CE7DC939-4F90-A44D-9EF1-2DF54DACEE71}"/>
-    <hyperlink ref="B26" r:id="rId25" display="https://neetcode.io/problems/longest-consecutive-sequence" xr:uid="{4E062C1B-ADA0-3843-82F2-8C669E1F440E}"/>
-    <hyperlink ref="B27" r:id="rId26" display="https://neetcode.io/problems/rotate-matrix" xr:uid="{62C51741-11CA-F748-A94E-19EA68262331}"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://neetcode.io/problems/spiral-matrix" xr:uid="{F62C5BFD-B341-404F-B3D3-11D407908240}"/>
-    <hyperlink ref="B29" r:id="rId28" display="https://neetcode.io/problems/set-zeroes-in-matrix" xr:uid="{AF585974-C8CE-FA4F-A3A5-584035016192}"/>
-    <hyperlink ref="B30" r:id="rId29" display="https://neetcode.io/problems/invert-a-binary-tree" xr:uid="{23F4F5D2-EBC5-0B42-8E99-97A5FC978102}"/>
-    <hyperlink ref="B31" r:id="rId30" display="https://neetcode.io/problems/depth-of-binary-tree" xr:uid="{2134BCD9-73C5-2E45-BF34-0175121AFF59}"/>
-    <hyperlink ref="B32" r:id="rId31" display="https://neetcode.io/problems/same-binary-tree" xr:uid="{8AF9261E-D364-134F-B7B7-8C79BD90A768}"/>
-    <hyperlink ref="B33" r:id="rId32" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://neetcode.io/problems/lowest-common-ancestor-in-binary-search-tree" xr:uid="{159CE993-32D5-5642-8C4D-75540899B343}"/>
-    <hyperlink ref="B35" r:id="rId34" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
-    <hyperlink ref="B37" r:id="rId35" display="https://neetcode.io/problems/kth-smallest-integer-in-bst" xr:uid="{2804BE54-CD1B-5847-BC91-01C1185BB0A7}"/>
-    <hyperlink ref="B36" r:id="rId36" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
-    <hyperlink ref="B38" r:id="rId37" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
-    <hyperlink ref="B39" r:id="rId38" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
-    <hyperlink ref="B40" r:id="rId39" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
-    <hyperlink ref="B41" r:id="rId40" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
-    <hyperlink ref="B42" r:id="rId41" display="https://neetcode.io/problems/longest-palindromic-substring" xr:uid="{F46C0D3D-86BE-5F41-BBEA-BD6B55855415}"/>
-    <hyperlink ref="B43" r:id="rId42" display="https://neetcode.io/problems/palindromic-substrings" xr:uid="{D6FD2856-17D2-6043-BF6C-324D31927E5D}"/>
-    <hyperlink ref="B44" r:id="rId43" display="https://neetcode.io/problems/decode-ways" xr:uid="{CC50AEDC-C49C-8D49-96D9-42474B633467}"/>
-    <hyperlink ref="B45" r:id="rId44" display="https://neetcode.io/problems/coin-change" xr:uid="{92C09128-F580-9945-B7DE-F75887FDE2F5}"/>
-    <hyperlink ref="B46" r:id="rId45" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{0A0BAAB7-8A55-0B4A-99C2-5045410717B0}"/>
+    <hyperlink ref="B25" r:id="rId23" display="https://neetcode.io/problems/products-of-array-discluding-self" xr:uid="{CE7DC939-4F90-A44D-9EF1-2DF54DACEE71}"/>
+    <hyperlink ref="B26" r:id="rId24" display="https://neetcode.io/problems/longest-consecutive-sequence" xr:uid="{4E062C1B-ADA0-3843-82F2-8C669E1F440E}"/>
+    <hyperlink ref="B27" r:id="rId25" display="https://neetcode.io/problems/rotate-matrix" xr:uid="{62C51741-11CA-F748-A94E-19EA68262331}"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://neetcode.io/problems/spiral-matrix" xr:uid="{F62C5BFD-B341-404F-B3D3-11D407908240}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://neetcode.io/problems/set-zeroes-in-matrix" xr:uid="{AF585974-C8CE-FA4F-A3A5-584035016192}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://neetcode.io/problems/invert-a-binary-tree" xr:uid="{23F4F5D2-EBC5-0B42-8E99-97A5FC978102}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://neetcode.io/problems/depth-of-binary-tree" xr:uid="{2134BCD9-73C5-2E45-BF34-0175121AFF59}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://neetcode.io/problems/same-binary-tree" xr:uid="{8AF9261E-D364-134F-B7B7-8C79BD90A768}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://neetcode.io/problems/lowest-common-ancestor-in-binary-search-tree" xr:uid="{159CE993-32D5-5642-8C4D-75540899B343}"/>
+    <hyperlink ref="B35" r:id="rId33" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
+    <hyperlink ref="B37" r:id="rId34" display="https://neetcode.io/problems/kth-smallest-integer-in-bst" xr:uid="{2804BE54-CD1B-5847-BC91-01C1185BB0A7}"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
+    <hyperlink ref="B38" r:id="rId36" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
+    <hyperlink ref="B39" r:id="rId37" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
+    <hyperlink ref="B40" r:id="rId38" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
+    <hyperlink ref="B41" r:id="rId39" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
+    <hyperlink ref="B42" r:id="rId40" display="https://neetcode.io/problems/longest-palindromic-substring" xr:uid="{F46C0D3D-86BE-5F41-BBEA-BD6B55855415}"/>
+    <hyperlink ref="B43" r:id="rId41" display="https://neetcode.io/problems/palindromic-substrings" xr:uid="{D6FD2856-17D2-6043-BF6C-324D31927E5D}"/>
+    <hyperlink ref="B44" r:id="rId42" display="https://neetcode.io/problems/decode-ways" xr:uid="{CC50AEDC-C49C-8D49-96D9-42474B633467}"/>
+    <hyperlink ref="B45" r:id="rId43" display="https://neetcode.io/problems/coin-change" xr:uid="{92C09128-F580-9945-B7DE-F75887FDE2F5}"/>
+    <hyperlink ref="B46" r:id="rId44" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{0A0BAAB7-8A55-0B4A-99C2-5045410717B0}"/>
+    <hyperlink ref="B47" r:id="rId45" display="https://neetcode.io/problems/word-break" xr:uid="{89E52913-3F4C-704E-9026-AF11D18CD21D}"/>
+    <hyperlink ref="B24" r:id="rId46" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{9CDB9CBD-F8A2-8D48-82BA-F39270BA6CA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02D725A-53D6-5F49-9C3C-5175A344A206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EDC485-E2E8-9348-B0CD-DBAE2B4AD970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="201">
   <si>
     <t>Category</t>
   </si>
@@ -1532,6 +1532,12 @@
   <si>
     <t>The algorithm uses dynamic programming to determine if the string `s` can be segmented into words from `wordDict`. It initializes a boolean array `dp` where `dp[i]` is `True` if the substring `s[i:]` can be segmented. Starting from the end of `s`, it iterates backward, checking if each word in `wordDict` matches the substring starting at `i` and if the remaining substring can be segmented (`dp[i + len(w)]`). If a match is found, `dp[i]` is set to `True`, and the search stops early for that index. The result is given by `dp[0]`.
 The algorithm uses dynamic programming to determine if the string s can be segmented into words from wordDict. It initializes a boolean array dp where dp[i] is True if the substring s[i:] can be segmented. Starting from the end of s, it iterates backward, checking if each word in wordDict matches the substring starting at i and if the remaining substring can be segmented (dp[i + len(w)]). If a match is found, dp[i] is set to True, and the search stops early for that index. The result is given by dp[0].</t>
+  </si>
+  <si>
+    <t>combinations of including or not including every number in the subsequence. 2^n combinations. otherwise try DFS with cache</t>
+  </si>
+  <si>
+    <t>Record your explanation in your own words using Goodnotes. Good communication skills practice for interviews</t>
   </si>
 </sst>
 </file>
@@ -1969,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,6 +2361,9 @@
       <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="J15" s="11" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3072,6 +3081,9 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="F48" t="s">
         <v>13</v>
       </c>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EDC485-E2E8-9348-B0CD-DBAE2B4AD970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD1C8D-5DA1-B142-A859-72115AEAB595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
   <si>
     <t>Category</t>
   </si>
@@ -1538,6 +1538,22 @@
   </si>
   <si>
     <t>Record your explanation in your own words using Goodnotes. Good communication skills practice for interviews</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def lengthOfLIS(self, nums: List[int]) -&gt; int:
+        LIS = [1] * len(nums)
+        for i in range(len(nums) - 1, -1, -1):
+            for j in range(i + 1, len(nums)):
+                if nums[i] &lt; nums[j]:
+                    LIS[i] = max(LIS[i], 1 + LIS[j])
+        return max(LIS)</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence </t>
+  </si>
+  <si>
+    <t>Use an array LIS to mark the max possible LIS from that number/index in the input array</t>
   </si>
 </sst>
 </file>
@@ -1975,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3081,10 +3097,25 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="E48" s="6" t="s">
         <v>199</v>
       </c>
       <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3468,6 +3499,7 @@
     <hyperlink ref="B46" r:id="rId44" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{0A0BAAB7-8A55-0B4A-99C2-5045410717B0}"/>
     <hyperlink ref="B47" r:id="rId45" display="https://neetcode.io/problems/word-break" xr:uid="{89E52913-3F4C-704E-9026-AF11D18CD21D}"/>
     <hyperlink ref="B24" r:id="rId46" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{9CDB9CBD-F8A2-8D48-82BA-F39270BA6CA2}"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://neetcode.io/problems/longest-increasing-subsequence" xr:uid="{BCB217F4-C89C-BE42-8619-A99B1A2DA7FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD1C8D-5DA1-B142-A859-72115AEAB595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F85461-951C-4948-A91B-4BF3925D06E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
   <si>
     <t>Category</t>
   </si>
@@ -1554,6 +1554,65 @@
   </si>
   <si>
     <t>Use an array LIS to mark the max possible LIS from that number/index in the input array</t>
+  </si>
+  <si>
+    <t>optimal2:
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def __init__(self):
+        self.d={}
+        self.result=float('-inf')
+    def traverse(self,root):
+        if root:
+            self.traverse(root.left)
+            self.result=max(self.result,max(self.maxDepth(root.left),0)+root.val+max(self.maxDepth(root.right),0))
+            self.traverse(root.right)
+    def maxDepth(self, root: Optional[TreeNode]) -&gt; int:
+        if root:
+            if root in self.d:
+                return self.d[root]
+            self.d[root]=root.val+max(self.maxDepth(root.left),0,self.maxDepth(root.right))
+            return self.d[root]
+        return 0
+    def maxPathSum(self, root: Optional[TreeNode]) -&gt; int:
+        self.traverse(root)
+        return self.result</t>
+  </si>
+  <si>
+    <t>optimal1:
+# Definition for a binary tree node.
+# class TreeNode:
+#     def __init__(self, val=0, left=None, right=None):
+#         self.val = val
+#         self.left = left
+#         self.right = right
+class Solution:
+    def maxPathSum(self, root: TreeNode) -&gt; int:
+        res = [root.val]
+        # return max path sum without split
+        def dfs(root):
+            if not root:
+                return 0
+            leftMax = dfs(root.left)
+            rightMax = dfs(root.right)
+            leftMax = max(leftMax, 0)
+            rightMax = max(rightMax, 0)
+            # compute max path sum WITH split
+            res[0] = max(res[0], root.val + leftMax + rightMax)
+            return root.val + max(leftMax, rightMax)
+        dfs(root)
+        return res[0]</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum </t>
+  </si>
+  <si>
+    <t>use max(0,maxDepth) on right and left nodes and add value too root value to find max path. Use dp on maxdepth of nodes</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +2051,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3119,82 +3178,100 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="F49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G49" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F64" t="s">
         <v>13</v>
       </c>
@@ -3500,6 +3577,7 @@
     <hyperlink ref="B47" r:id="rId45" display="https://neetcode.io/problems/word-break" xr:uid="{89E52913-3F4C-704E-9026-AF11D18CD21D}"/>
     <hyperlink ref="B24" r:id="rId46" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{9CDB9CBD-F8A2-8D48-82BA-F39270BA6CA2}"/>
     <hyperlink ref="B48" r:id="rId47" display="https://neetcode.io/problems/longest-increasing-subsequence" xr:uid="{BCB217F4-C89C-BE42-8619-A99B1A2DA7FE}"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://neetcode.io/problems/binary-tree-maximum-path-sum" xr:uid="{0A382EC8-7ADC-F842-A385-EA243308C78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F85461-951C-4948-A91B-4BF3925D06E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE3675-B803-9D44-9C60-7E1A2A3FA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="216">
   <si>
     <t>Category</t>
   </si>
@@ -1613,6 +1613,60 @@
   </si>
   <si>
     <t>use max(0,maxDepth) on right and left nodes and add value too root value to find max path. Use dp on maxdepth of nodes</t>
+  </si>
+  <si>
+    <t>2-D DP</t>
+  </si>
+  <si>
+    <t>start from the end of the grid, counting up. Just see optimal code 2</t>
+  </si>
+  <si>
+    <t>optimal2:
+class Solution:
+    def uniquePaths(self, m: int, n: int) -&gt; int:
+        d=[[0]*n]*m
+        for i in reversed(range(0,m)):
+            for j in reversed(range(0,n)):
+                if i==m-1 or j==n-1:
+                    d[i][j]=1
+                else:
+                    d[i][j]=d[i+1][j]+d[i][j+1]
+        print(d)
+        return d[0][0]</t>
+  </si>
+  <si>
+    <t>optimal1:
+class Solution:
+    def uniquePaths(self, m: int, n: int) -&gt; int:
+        row = [1] * n
+        for i in range(m - 1):
+            newRow = [1] * n
+            for j in range(n - 2, -1, -1):
+                newRow[j] = newRow[j + 1] + row[j]
+            row = newRow
+        return row[0]
+        # O(n * m) O(n)</t>
+  </si>
+  <si>
+    <t>Unique Paths </t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence </t>
+  </si>
+  <si>
+    <t>LCS- just see pseudocode/code</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def longestCommonSubsequence(self, text1: str, text2: str) -&gt; int:
+        dp = [[0 for j in range(len(text2) + 1)] for i in range(len(text1) + 1)]
+        for i in range(len(text1) - 1, -1, -1):
+            for j in range(len(text2) - 1, -1, -1):
+                if text1[i] == text2[j]:
+                    dp[i][j] = 1 + dp[i + 1][j + 1]
+                else:
+                    dp[i][j] = max(dp[i][j + 1], dp[i + 1][j])
+        return dp[0][0]</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2105,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="G50" sqref="G50:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3202,12 +3256,45 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
+      <c r="G50" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3578,6 +3665,8 @@
     <hyperlink ref="B24" r:id="rId46" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{9CDB9CBD-F8A2-8D48-82BA-F39270BA6CA2}"/>
     <hyperlink ref="B48" r:id="rId47" display="https://neetcode.io/problems/longest-increasing-subsequence" xr:uid="{BCB217F4-C89C-BE42-8619-A99B1A2DA7FE}"/>
     <hyperlink ref="B49" r:id="rId48" display="https://neetcode.io/problems/binary-tree-maximum-path-sum" xr:uid="{0A382EC8-7ADC-F842-A385-EA243308C78E}"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://neetcode.io/problems/count-paths" xr:uid="{EE1B9D9D-2221-E045-9E4E-07537135B9A8}"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://neetcode.io/problems/longest-common-subsequence" xr:uid="{002246E8-3969-1F4E-AEA1-A3CA8A3DFB84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CE3675-B803-9D44-9C60-7E1A2A3FA7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C31F0-94D2-D341-85B9-C0394016DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="28020" yWindow="2280" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="221">
   <si>
     <t>Category</t>
   </si>
@@ -1667,6 +1667,57 @@
                 else:
                     dp[i][j] = max(dp[i][j + 1], dp[i + 1][j])
         return dp[0][0]</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>optimal1(my code, but messy):
+class Solution:
+    def insert(
+        self, intervals: List[List[int]], newInterval: List[int]
+    ) -&gt; List[List[int]]:
+        res = []
+        for i in range(len(intervals)):
+            if newInterval[1] &lt; intervals[i][0]:
+                res.append(newInterval)
+                return res + intervals[i:]
+            elif newInterval[0] &gt; intervals[i][1]:
+                res.append(intervals[i])
+            else:
+                newInterval = [
+                    min(newInterval[0], intervals[i][0]),
+                    max(newInterval[1], intervals[i][1]),
+                ]
+        res.append(newInterval)
+        return res</t>
+  </si>
+  <si>
+    <t>Insert Interval </t>
+  </si>
+  <si>
+    <t>see optimal2 code for the 3 scenarios</t>
+  </si>
+  <si>
+    <t>optimal2(Neetcode):
+class Solution:
+    def insert(
+        self, intervals: List[List[int]], newInterval: List[int]
+    ) -&gt; List[List[int]]:
+        res = []
+        for i in range(len(intervals)):
+            if newInterval[1] &lt; intervals[i][0]:
+                res.append(newInterval)
+                return res + intervals[i:]
+            elif newInterval[0] &gt; intervals[i][1]:
+                res.append(intervals[i])
+            else:
+                newInterval = [
+                    min(newInterval[0], intervals[i][0]),
+                    max(newInterval[1], intervals[i][1]),
+                ]
+        res.append(newInterval)
+        return res</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2156,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50:G51"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3299,7 +3350,25 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3667,6 +3736,7 @@
     <hyperlink ref="B49" r:id="rId48" display="https://neetcode.io/problems/binary-tree-maximum-path-sum" xr:uid="{0A382EC8-7ADC-F842-A385-EA243308C78E}"/>
     <hyperlink ref="B50" r:id="rId49" display="https://neetcode.io/problems/count-paths" xr:uid="{EE1B9D9D-2221-E045-9E4E-07537135B9A8}"/>
     <hyperlink ref="B51" r:id="rId50" display="https://neetcode.io/problems/longest-common-subsequence" xr:uid="{002246E8-3969-1F4E-AEA1-A3CA8A3DFB84}"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://neetcode.io/problems/insert-new-interval" xr:uid="{732EC2E2-DB8E-CF43-9D85-39B5E23A9042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C31F0-94D2-D341-85B9-C0394016DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCDE5F-8500-4248-8AF2-591F35335940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28020" yWindow="2280" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="225">
   <si>
     <t>Category</t>
   </si>
@@ -1718,6 +1718,34 @@
                 ]
         res.append(newInterval)
         return res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use insert interval function for insertion sort:
+        res=[]
+        for interval in intervals:
+            res=self.insert(res,interval)
+        return res
+</t>
+  </si>
+  <si>
+    <t>keep inserting if no overlap, if there is, then take max of last interval in result and of the new overlapping one</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def merge(self, intervals: List[List[int]]) -&gt; List[List[int]]:
+        intervals.sort(key=lambda pair: pair[0])
+        output = [intervals[0]]
+        for start, end in intervals:
+            lastEnd = output[-1][1]
+            if start &lt;= lastEnd:
+                # merge
+                output[-1][1] = max(lastEnd, end)
+            else:
+                output.append([start, end])
+        return output</t>
+  </si>
+  <si>
+    <t>Merge Intervals </t>
   </si>
 </sst>
 </file>
@@ -2156,7 +2184,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3373,7 +3401,25 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3737,6 +3783,7 @@
     <hyperlink ref="B50" r:id="rId49" display="https://neetcode.io/problems/count-paths" xr:uid="{EE1B9D9D-2221-E045-9E4E-07537135B9A8}"/>
     <hyperlink ref="B51" r:id="rId50" display="https://neetcode.io/problems/longest-common-subsequence" xr:uid="{002246E8-3969-1F4E-AEA1-A3CA8A3DFB84}"/>
     <hyperlink ref="B52" r:id="rId51" display="https://neetcode.io/problems/insert-new-interval" xr:uid="{732EC2E2-DB8E-CF43-9D85-39B5E23A9042}"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://neetcode.io/problems/merge-intervals" xr:uid="{C938C9C9-8192-9043-AAFA-40955C078613}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABCDE5F-8500-4248-8AF2-591F35335940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC8417-90F9-D343-9B0F-3E95C1A544B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28020" yWindow="2280" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="240">
   <si>
     <t>Category</t>
   </si>
@@ -1746,6 +1746,65 @@
   </si>
   <si>
     <t>Merge Intervals </t>
+  </si>
+  <si>
+    <t>Non Overlapping Intervals </t>
+  </si>
+  <si>
+    <t>if there's an overlap pick the interval which ends early</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def eraseOverlapIntervals(self, intervals: List[List[int]]) -&gt; int:
+        intervals.sort()
+        res = 0
+        prevEnd = intervals[0][1]
+        for start, end in intervals[1:]:
+            if start &gt;= prevEnd:
+                prevEnd = end
+            else:
+                res += 1
+                prevEnd = min(end, prevEnd)
+        return res</t>
+  </si>
+  <si>
+    <t>Alien Dictionary </t>
+  </si>
+  <si>
+    <t>Advanced Graphs</t>
+  </si>
+  <si>
+    <t>topological sort</t>
+  </si>
+  <si>
+    <t>Bit Manipulation
+Bit Manipulation
+Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits </t>
+  </si>
+  <si>
+    <t>Counting Bits </t>
+  </si>
+  <si>
+    <t>Reverse Bits </t>
+  </si>
+  <si>
+    <t>Missing Number </t>
+  </si>
+  <si>
+    <t>Sum of Two Integers </t>
+  </si>
+  <si>
+    <t>2 ways: ANDing every digit with 1, expecting a 0. or, Modding (%) every digit with 2.( reminder will be 1). To get next digit, we can use divide by 2, or bit shift(preferred as it is efficient on CPU)</t>
+  </si>
+  <si>
+    <t>slightly more optimal, also constant time. So no need to use this. Use optimal 2 solution. It's complicated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optimal 2: Looks at every 1 (constant time - 32 operations, 32 bits are looked at so O(1)
+Number of 1 Bits </t>
   </si>
 </sst>
 </file>
@@ -2183,13 +2242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="6" customWidth="1"/>
@@ -3424,37 +3483,106 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>227</v>
+      </c>
       <c r="F54" t="s">
         <v>13</v>
       </c>
+      <c r="G54" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="F55" t="s">
         <v>13</v>
       </c>
+      <c r="G55" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
       <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3784,6 +3912,13 @@
     <hyperlink ref="B51" r:id="rId50" display="https://neetcode.io/problems/longest-common-subsequence" xr:uid="{002246E8-3969-1F4E-AEA1-A3CA8A3DFB84}"/>
     <hyperlink ref="B52" r:id="rId51" display="https://neetcode.io/problems/insert-new-interval" xr:uid="{732EC2E2-DB8E-CF43-9D85-39B5E23A9042}"/>
     <hyperlink ref="B53" r:id="rId52" display="https://neetcode.io/problems/merge-intervals" xr:uid="{C938C9C9-8192-9043-AAFA-40955C078613}"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://neetcode.io/problems/non-overlapping-intervals" xr:uid="{22823251-5EE1-F54A-BED7-B9F3C7E00ED5}"/>
+    <hyperlink ref="B60" r:id="rId54" display="https://neetcode.io/problems/foreign-dictionary" xr:uid="{9A2AE8DB-AA45-994B-BE5F-BDFCB583925E}"/>
+    <hyperlink ref="B55" r:id="rId55" display="https://neetcode.io/problems/number-of-one-bits" xr:uid="{1D8EE561-EEAF-EF45-95DA-0490AE5E1BB3}"/>
+    <hyperlink ref="B56" r:id="rId56" display="https://neetcode.io/problems/counting-bits" xr:uid="{3C8742FF-4C52-7945-A27E-DA6EB3129E16}"/>
+    <hyperlink ref="B57" r:id="rId57" display="https://neetcode.io/problems/reverse-bits" xr:uid="{E15627E1-508B-364D-83F0-F0BB90B6CCE4}"/>
+    <hyperlink ref="B58" r:id="rId58" display="https://neetcode.io/problems/missing-number" xr:uid="{853F6E34-42B7-4741-BCE3-B5694D2A70A1}"/>
+    <hyperlink ref="B59" r:id="rId59" display="https://neetcode.io/problems/sum-of-two-integers" xr:uid="{90FB29A5-55D2-804D-9747-BEBCB9B9BB52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC8417-90F9-D343-9B0F-3E95C1A544B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09838718-8E57-F648-B57E-804E9AA2F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28020" yWindow="2280" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="247">
   <si>
     <t>Category</t>
   </si>
@@ -1805,6 +1805,74 @@
   <si>
     <t xml:space="preserve">optimal 2: Looks at every 1 (constant time - 32 operations, 32 bits are looked at so O(1)
 Number of 1 Bits </t>
+  </si>
+  <si>
+    <t>loop from 0 to n and then use NumberOf1bits solution here(to find hammingweight) on I to find and append count to resultant array</t>
+  </si>
+  <si>
+    <t>besides 0, number of 1s for each is 1+dp[i-offset] where offset is the most significant bit's value(1,2,4,8,16,… etc(powers of 2)). finding most significant bit is by doing i==offset*2 and multiplying offset by 2 if condition is true
+class Solution:
+    def countBits(self, n: int) -&gt; List[int]:
+        dp = [0] * (n + 1)
+        offset = 1
+        for i in range(1, n + 1):
+            if offset * 2 == i:
+                offset = i
+            dp[i] = 1 + dp[i - offset]
+        return dp</t>
+  </si>
+  <si>
+    <t>see code</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def reverseBits(self, n: int) -&gt; int:
+        res = 0
+        for i in range(32):
+            bit = (n &gt;&gt; i) &amp; 1
+            res += (bit &lt;&lt; (31 - i))
+        return res
+This solution reverses the bits of a given 32-bit unsigned integer. Here’s a step-by-step explanation of the code:
+1. **Initialization**:
+   - `res` is initialized to `0`. This will store the result of the reversed bits.
+2. **Loop through each bit**:
+   - A loop runs from `0` to `31`, iterating over each bit position in the 32-bit integer `n`.
+3. **Extract the i-th bit**:
+   - `bit = (n &gt;&gt; i) &amp; 1`: This shifts the bits of `n` to the right by `i` positions, so that the i-th bit is now in the least significant bit (LSB) position. Then, it performs a bitwise AND with `1` to isolate the LSB, effectively extracting the i-th bit of `n`.
+4. **Set the corresponding bit in the result**:
+   - `res += (bit &lt;&lt; (31 - i))`: This shifts the extracted bit to its new position in the reversed bit order. The bit originally at position `i` in `n` should end up at position `31 - i` in `res`. The shifted bit is then added to `res`.
+5. **Return the result**:
+   - After the loop completes, `res` contains the reversed bit pattern of `n`, and it is returned as the final result.
+Here's an example to illustrate:
+**Example**:
+- Input: `n = 43261596` (binary representation: `00000010100101000001111010011100`)
+- Output: `964176192` (binary representation: `00111001011110000010100101000000`)
+**Detailed Steps**:
+1. Extract the 0-th bit of `n` and set it to the 31st position in `res`.
+2. Extract the 1st bit of `n` and set it to the 30th position in `res`.
+3. Continue this process for all 32 bits.
+4. The final value of `res` will have all bits of `n` reversed.
+This approach ensures that each bit is correctly placed in its reversed position, achieving the desired result.</t>
+  </si>
+  <si>
+    <t>see code, super intuitive solution. Read all available solutions for this problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use hashing, cross off any number we encounter and then return the remaining number
+</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def missingNumber(self, nums: List[int]) -&gt; int:
+        res = len(nums)
+        for i in range(len(nums)):
+            res += i - nums[i]
+        return res
+Alternative solution is using XORs(have to memorise or know this solution. can't really derive it on spot
+XORing numbers with itself will become 0, leaving out the one number that was missing
+class Solution:
+    def missingNumber(self, nums: List[int]) -&gt; int:
+        return reduce(lambda x,y: x ^ y, list(range(len(nums)+1)) + nums)</t>
   </si>
 </sst>
 </file>
@@ -2242,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3532,7 +3600,19 @@
       <c r="B56" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="C56" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>240</v>
+      </c>
       <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3543,7 +3623,16 @@
       <c r="B57" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="C57" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>243</v>
+      </c>
       <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3554,7 +3643,19 @@
       <c r="B58" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="C58" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09838718-8E57-F648-B57E-804E9AA2F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A114AF0-D05E-CD49-A89E-5D518BA01DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28020" yWindow="2280" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="256">
   <si>
     <t>Category</t>
   </si>
@@ -1794,9 +1794,6 @@
     <t>Missing Number </t>
   </si>
   <si>
-    <t>Sum of Two Integers </t>
-  </si>
-  <si>
     <t>2 ways: ANDing every digit with 1, expecting a 0. or, Modding (%) every digit with 2.( reminder will be 1). To get next digit, we can use divide by 2, or bit shift(preferred as it is efficient on CPU)</t>
   </si>
   <si>
@@ -1873,6 +1870,67 @@
 class Solution:
     def missingNumber(self, nums: List[int]) -&gt; int:
         return reduce(lambda x,y: x ^ y, list(range(len(nums)+1)) + nums)</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Number of Islands </t>
+  </si>
+  <si>
+    <t>do BFS and mark adjacent 1s as visited whenever you find a 1(non-visited), and then count it as an island</t>
+  </si>
+  <si>
+    <t>function numIslands(grid):
+    if grid is empty, return 0
+    initialize rows, cols, visited, and islands
+    define bfs function(r, c):
+        initialize queue
+        add (r, c) to visited and queue
+        while queue is not empty:
+            get current row, col from queue
+            for each direction (up, down, left, right):
+                calculate new row, col
+                if new row, col are in bounds, are '1', and not visited:
+                    add new row, col to queue and visited
+    for each cell in grid:
+        if cell is '1' and not visited:
+            call bfs for the cell
+            increment islands by 1
+    return islands</t>
+  </si>
+  <si>
+    <t>Clone Graph </t>
+  </si>
+  <si>
+    <t>hasmap to map oldnode to new created node and connect them using dfs</t>
+  </si>
+  <si>
+    <t>#1. Use a hashmap to track originals to their clones
+#2. Traverse the original graph, visiting each node once, for each node just clone it's value without the neighbors.
+#3. Traverse the original graph again, visiting each node once, for each node find it''s clone and set the original's neighbors clones as the clone's neighbors.
+#4. return oldToNew[node]</t>
+  </si>
+  <si>
+    <t>function cloneGraph(node):
+    if node is None:
+        return None
+    oldToNew = {}
+    function dfs(node):
+        if node in oldToNew:
+            return oldToNew[node]
+        copy = new Node(node.val)
+        oldToNew[node] = copy
+        for nei in node.neighbors:
+            copy.neighbors.append(dfs(nei))
+        return copy
+    return dfs(node)</t>
+  </si>
+  <si>
+    <t>in every cell use bfs or dfs to traverse and find if  decreasing grid coordinates</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow </t>
   </si>
 </sst>
 </file>
@@ -2308,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="E68" sqref="E68:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3578,13 +3636,13 @@
         <v>232</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -3601,13 +3659,13 @@
         <v>233</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -3624,10 +3682,10 @@
         <v>234</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -3644,41 +3702,50 @@
         <v>235</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" t="s">
+        <v>230</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>229</v>
-      </c>
       <c r="B60" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C60" t="s">
-        <v>230</v>
+        <v>247</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -3688,11 +3755,44 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="F61" t="s">
         <v>13</v>
       </c>
+      <c r="G61" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
@@ -3827,11 +3927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="89" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3958,7 +4054,6 @@
     <row r="213" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{75EC1794-1CF8-A044-BE84-82BA083360E4}"/>
@@ -4014,12 +4109,14 @@
     <hyperlink ref="B52" r:id="rId51" display="https://neetcode.io/problems/insert-new-interval" xr:uid="{732EC2E2-DB8E-CF43-9D85-39B5E23A9042}"/>
     <hyperlink ref="B53" r:id="rId52" display="https://neetcode.io/problems/merge-intervals" xr:uid="{C938C9C9-8192-9043-AAFA-40955C078613}"/>
     <hyperlink ref="B54" r:id="rId53" display="https://neetcode.io/problems/non-overlapping-intervals" xr:uid="{22823251-5EE1-F54A-BED7-B9F3C7E00ED5}"/>
-    <hyperlink ref="B60" r:id="rId54" display="https://neetcode.io/problems/foreign-dictionary" xr:uid="{9A2AE8DB-AA45-994B-BE5F-BDFCB583925E}"/>
+    <hyperlink ref="B59" r:id="rId54" display="https://neetcode.io/problems/foreign-dictionary" xr:uid="{9A2AE8DB-AA45-994B-BE5F-BDFCB583925E}"/>
     <hyperlink ref="B55" r:id="rId55" display="https://neetcode.io/problems/number-of-one-bits" xr:uid="{1D8EE561-EEAF-EF45-95DA-0490AE5E1BB3}"/>
     <hyperlink ref="B56" r:id="rId56" display="https://neetcode.io/problems/counting-bits" xr:uid="{3C8742FF-4C52-7945-A27E-DA6EB3129E16}"/>
     <hyperlink ref="B57" r:id="rId57" display="https://neetcode.io/problems/reverse-bits" xr:uid="{E15627E1-508B-364D-83F0-F0BB90B6CCE4}"/>
     <hyperlink ref="B58" r:id="rId58" display="https://neetcode.io/problems/missing-number" xr:uid="{853F6E34-42B7-4741-BCE3-B5694D2A70A1}"/>
-    <hyperlink ref="B59" r:id="rId59" display="https://neetcode.io/problems/sum-of-two-integers" xr:uid="{90FB29A5-55D2-804D-9747-BEBCB9B9BB52}"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://neetcode.io/problems/count-number-of-islands" xr:uid="{D819ED46-1AD5-374D-8BC0-EFC815256505}"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://neetcode.io/problems/clone-graph" xr:uid="{B3345676-7611-3645-B596-0FCA5ADA0AEF}"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://neetcode.io/problems/pacific-atlantic-water-flow" xr:uid="{DA633310-0866-3B41-A6DE-F91E07490819}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A114AF0-D05E-CD49-A89E-5D518BA01DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D0D4D-08A9-8B4F-86D9-ACF51E1C92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="258">
   <si>
     <t>Category</t>
   </si>
@@ -1931,6 +1931,30 @@
   </si>
   <si>
     <t>Pacific Atlantic Water Flow </t>
+  </si>
+  <si>
+    <t>start with nodes adjoining pacific ocean and graph traverse to find other nodes that can reach it. Similarly for atlantic ocean. Make sure not to repeat cells though</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Function pacificAtlantic(heights):
+    Define ROWS and COLS from the dimensions of heights
+    Initialize sets pac and atl
+    Define dfs(r, c, visit, prevHeight):
+        If (r,c) is in visit OR out of bounds OR height is less than prevHeight:
+            Return
+        Add (r, c) to visit
+        Call dfs for all 4 directions (up, down, left, right)
+    For each column c from 0 to COLS-1:
+        Call dfs for the Pacific ocean (0, c)
+        Call dfs for the Atlantic ocean (ROWS-1, c)
+    For each row r from 0 to ROWS-1:
+        Call dfs for the Pacific ocean (r, 0)
+        Call dfs for the Atlantic ocean (r, COLS-1)
+    Initialize res as an empty list
+    For each cell (r, c) in the grid:
+        If (r, c) is in both pac and atl:
+            Append (r, c) to res
+    Return res</t>
   </si>
 </sst>
 </file>
@@ -2369,7 +2393,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:E69"/>
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3785,15 +3809,18 @@
         <v>255</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>13</v>
+        <v>256</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>254</v>
       </c>
       <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D0D4D-08A9-8B4F-86D9-ACF51E1C92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E3B99-1886-9644-9384-02C047E94222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="23360" windowHeight="14540" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="263">
   <si>
     <t>Category</t>
   </si>
@@ -1955,6 +1955,29 @@
         If (r, c) is in both pac and atl:
             Append (r, c) to res
     Return res</t>
+  </si>
+  <si>
+    <t>Maximum Subarray </t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def maxSubArray(self, nums: List[int]) -&gt; int:
+        sum=nums[0]
+        maxSum=sum
+        for i in range(1,len(nums)):
+            sum=max(sum,0)
+            sum+=nums[i]
+            maxSum=max(maxSum,sum)
+        return maxSum</t>
+  </si>
+  <si>
+    <t>compute every single subarray. 3 for loops (O(n^3)). You can also save sum and add one more element and by that you make it O(n^2)</t>
+  </si>
+  <si>
+    <t>keep track of only positive numbers, otherwise clear/break subarray</t>
   </si>
 </sst>
 </file>
@@ -2393,7 +2416,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3825,7 +3848,25 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4144,6 +4185,7 @@
     <hyperlink ref="B60" r:id="rId59" display="https://neetcode.io/problems/count-number-of-islands" xr:uid="{D819ED46-1AD5-374D-8BC0-EFC815256505}"/>
     <hyperlink ref="B61" r:id="rId60" display="https://neetcode.io/problems/clone-graph" xr:uid="{B3345676-7611-3645-B596-0FCA5ADA0AEF}"/>
     <hyperlink ref="B62" r:id="rId61" display="https://neetcode.io/problems/pacific-atlantic-water-flow" xr:uid="{DA633310-0866-3B41-A6DE-F91E07490819}"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://neetcode.io/problems/maximum-subarray" xr:uid="{4A05A837-E4AE-7140-9451-181D9040521C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E3B99-1886-9644-9384-02C047E94222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EC13B-EBAB-5B44-A9A7-CD0FA6792B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="23360" windowHeight="14540" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="23360" windowHeight="14540" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="267">
   <si>
     <t>Category</t>
   </si>
@@ -1978,6 +1978,24 @@
   </si>
   <si>
     <t>keep track of only positive numbers, otherwise clear/break subarray</t>
+  </si>
+  <si>
+    <t>Jump Game </t>
+  </si>
+  <si>
+    <t>try all combinations of paths from given index. Add caching to get O(n^2). Alterntively, use DP array to mark indices that are deadends when using brute force. So if dp[index] is false, then don't bother checking paths for it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> greedy solution is O(n) and simpler than DP.  Start from the end(goalpost) and try to reach it from indices reachable by it. Mark node reachable by it as goalpost and try to reach it again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> class Solution:
+    def canJump(self, nums: List[int]) -&gt; bool:
+        goal = len(nums) - 1
+        for i in range(len(nums) - 2, -1, -1):
+            if i + nums[i] &gt;= goal:
+                goal = i
+        return goal == 0</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2434,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3871,7 +3889,25 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4186,6 +4222,7 @@
     <hyperlink ref="B61" r:id="rId60" display="https://neetcode.io/problems/clone-graph" xr:uid="{B3345676-7611-3645-B596-0FCA5ADA0AEF}"/>
     <hyperlink ref="B62" r:id="rId61" display="https://neetcode.io/problems/pacific-atlantic-water-flow" xr:uid="{DA633310-0866-3B41-A6DE-F91E07490819}"/>
     <hyperlink ref="B63" r:id="rId62" display="https://neetcode.io/problems/maximum-subarray" xr:uid="{4A05A837-E4AE-7140-9451-181D9040521C}"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://neetcode.io/problems/jump-game" xr:uid="{E1865FE4-3DF1-474B-9107-A6E781211C98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20EC13B-EBAB-5B44-A9A7-CD0FA6792B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5385449-126E-0143-8B89-BEDC68492A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="23360" windowHeight="14540" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blind75" sheetId="1" r:id="rId1"/>
+    <sheet name="Neetcode75" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="275">
   <si>
     <t>Category</t>
   </si>
@@ -1996,6 +1997,58 @@
             if i + nums[i] &gt;= goal:
                 goal = i
         return goal == 0</t>
+  </si>
+  <si>
+    <t>Neetcode 75 is Neetcode 150 - Blind 75</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>Two Sum II Input Array Is Sorted </t>
+  </si>
+  <si>
+    <t>Two Sum II Input Array Is Sorted and answer is guaranteed. Use that, see code</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def twoSum(self, numbers: List[int], target: int) -&gt; List[int]:
+        l, r=0, len(numbers)-1
+        while l&lt;r:
+            curSum=numbers[l]+numbers[r]
+            if curSum==target:
+                return [l+1,r+1]
+            elif curSum&lt;target:
+                l+=1
+            else:
+                r-=1</t>
+  </si>
+  <si>
+    <t>check row, column and square at every square grid start(0, multiples of 3)</t>
+  </si>
+  <si>
+    <t>2 for loops.</t>
+  </si>
+  <si>
+    <t>class Solution:
+    def isValidSudoku(self, board: List[List[str]]) -&gt; bool:
+        cols = collections.defaultdict(set)
+        rows = collections.defaultdict(set)
+        squares = collections.defaultdict(set)  # key = (r /3, c /3)
+        for r in range(9):
+            for c in range(9):
+                if board[r][c] == ".":
+                    continue
+                if (
+                    board[r][c] in rows[r]
+                    or board[r][c] in cols[c]
+                    or board[r][c] in squares[(r // 3, c // 3)]
+                ):
+                    return False
+                cols[c].add(board[r][c])
+                rows[r].add(board[r][c])
+                squares[(r // 3, c // 3)].add(board[r][c])
+        return True</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2096,6 +2149,7 @@
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2433,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,6 +2564,9 @@
       <c r="J2" t="s">
         <v>4</v>
       </c>
+      <c r="M2" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2536,6 +2593,9 @@
       <c r="J3" t="s">
         <v>5</v>
       </c>
+      <c r="M3" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2562,6 +2622,9 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
+      <c r="M4" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2588,6 +2651,9 @@
       <c r="J5" t="s">
         <v>7</v>
       </c>
+      <c r="M5" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2608,6 +2674,9 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M6" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2634,6 +2703,9 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
+      <c r="M7" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2660,6 +2732,9 @@
       <c r="J8" t="s">
         <v>10</v>
       </c>
+      <c r="M8" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2684,6 +2759,9 @@
       <c r="J9" t="s">
         <v>11</v>
       </c>
+      <c r="M9" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2707,6 +2785,9 @@
       <c r="J10" t="s">
         <v>45</v>
       </c>
+      <c r="M10" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2727,6 +2808,9 @@
       <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M11" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2750,6 +2834,9 @@
       <c r="I12" t="s">
         <v>62</v>
       </c>
+      <c r="M12" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2770,6 +2857,9 @@
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M13" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2796,6 +2886,9 @@
       <c r="J14" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="M14" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2822,6 +2915,9 @@
       <c r="J15" s="11" t="s">
         <v>200</v>
       </c>
+      <c r="M15" s="12">
+        <v>45510</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2845,8 +2941,11 @@
       <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2868,8 +2967,11 @@
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2891,8 +2993,11 @@
       <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -2914,8 +3019,11 @@
       <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -2937,8 +3045,11 @@
       <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -2957,8 +3068,11 @@
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M21" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2977,8 +3091,11 @@
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -3000,8 +3117,11 @@
       <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M23" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3023,8 +3143,11 @@
       <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -3046,8 +3169,11 @@
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M25" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3069,8 +3195,11 @@
       <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -3092,8 +3221,11 @@
       <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3118,8 +3250,11 @@
       <c r="H28" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3141,8 +3276,11 @@
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -3161,8 +3299,11 @@
       <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -3181,8 +3322,11 @@
       <c r="G31" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -3201,8 +3345,11 @@
       <c r="G32" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -3221,8 +3368,11 @@
       <c r="G33" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -3244,8 +3394,11 @@
       <c r="H34" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -3267,8 +3420,11 @@
       <c r="G35" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -3287,8 +3443,11 @@
       <c r="G36" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -3310,8 +3469,11 @@
       <c r="G37" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3330,8 +3492,11 @@
       <c r="G38" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -3353,8 +3518,11 @@
       <c r="G39" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="J40" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -3399,8 +3570,11 @@
       <c r="G41" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -3422,8 +3596,11 @@
       <c r="G42" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -3445,8 +3622,11 @@
       <c r="G43" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -3468,8 +3648,11 @@
       <c r="G44" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -3488,8 +3671,11 @@
       <c r="G45" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -3511,8 +3697,11 @@
       <c r="G46" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -3537,8 +3726,11 @@
       <c r="I47" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -3560,8 +3752,11 @@
       <c r="G48" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -3583,8 +3778,11 @@
       <c r="G49" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -3606,8 +3804,11 @@
       <c r="G50" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -3626,8 +3827,11 @@
       <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -3649,8 +3853,11 @@
       <c r="G52" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -3672,8 +3879,11 @@
       <c r="G53" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -3692,8 +3902,11 @@
       <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>231</v>
       </c>
@@ -3715,8 +3928,11 @@
       <c r="G55" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>231</v>
       </c>
@@ -3738,8 +3954,11 @@
       <c r="G56" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>231</v>
       </c>
@@ -3758,8 +3977,11 @@
       <c r="G57" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M57" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>231</v>
       </c>
@@ -3781,8 +4003,11 @@
       <c r="G58" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M58" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -3798,8 +4023,11 @@
       <c r="G59" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M59" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>246</v>
       </c>
@@ -3818,8 +4046,11 @@
       <c r="G60" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M60" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>246</v>
       </c>
@@ -3841,8 +4072,11 @@
       <c r="G61" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M61" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>246</v>
       </c>
@@ -3864,8 +4098,11 @@
       <c r="G62" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M62" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>259</v>
       </c>
@@ -3887,8 +4124,11 @@
       <c r="G63" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M63" s="12">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>259</v>
       </c>
@@ -3909,6 +4149,9 @@
       </c>
       <c r="G64" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="M64" s="12">
+        <v>45510</v>
       </c>
     </row>
     <row r="65" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4226,4 +4469,865 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
+  <dimension ref="A1:S215"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="7" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="9" width="6" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="K3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="9"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5385449-126E-0143-8B89-BEDC68492A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F777B7D-0C15-D64C-A0EB-93AF9FFA310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="276">
   <si>
     <t>Category</t>
   </si>
@@ -2049,6 +2049,9 @@
                 rows[r].add(board[r][c])
                 squares[(r // 3, c // 3)].add(board[r][c])
         return True</t>
+  </si>
+  <si>
+    <t>Revise Date</t>
   </si>
 </sst>
 </file>
@@ -2487,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2535,6 +2538,9 @@
       <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2559,7 +2565,9 @@
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
         <v>4</v>
@@ -2567,6 +2575,9 @@
       <c r="M2" s="12">
         <v>45510</v>
       </c>
+      <c r="N2" s="12">
+        <v>45511</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2596,6 +2607,7 @@
       <c r="M3" s="12">
         <v>45510</v>
       </c>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2625,6 +2637,7 @@
       <c r="M4" s="12">
         <v>45510</v>
       </c>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2654,6 +2667,7 @@
       <c r="M5" s="12">
         <v>45510</v>
       </c>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2677,6 +2691,7 @@
       <c r="M6" s="12">
         <v>45510</v>
       </c>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2706,6 +2721,7 @@
       <c r="M7" s="12">
         <v>45510</v>
       </c>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2735,6 +2751,7 @@
       <c r="M8" s="12">
         <v>45510</v>
       </c>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2762,6 +2779,7 @@
       <c r="M9" s="12">
         <v>45510</v>
       </c>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2788,6 +2806,7 @@
       <c r="M10" s="12">
         <v>45510</v>
       </c>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2811,6 +2830,7 @@
       <c r="M11" s="12">
         <v>45510</v>
       </c>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2837,6 +2857,7 @@
       <c r="M12" s="12">
         <v>45510</v>
       </c>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2860,6 +2881,7 @@
       <c r="M13" s="12">
         <v>45510</v>
       </c>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2889,6 +2911,7 @@
       <c r="M14" s="12">
         <v>45510</v>
       </c>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2918,6 +2941,7 @@
       <c r="M15" s="12">
         <v>45510</v>
       </c>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2944,8 +2968,9 @@
       <c r="M16" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -2970,8 +2995,9 @@
       <c r="M17" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -2996,8 +3022,9 @@
       <c r="M18" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3022,8 +3049,9 @@
       <c r="M19" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -3048,8 +3076,9 @@
       <c r="M20" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3071,8 +3100,9 @@
       <c r="M21" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -3094,8 +3124,9 @@
       <c r="M22" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -3120,8 +3151,9 @@
       <c r="M23" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -3146,8 +3178,9 @@
       <c r="M24" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -3172,8 +3205,9 @@
       <c r="M25" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3198,8 +3232,9 @@
       <c r="M26" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -3224,8 +3259,9 @@
       <c r="M27" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3253,8 +3289,9 @@
       <c r="M28" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3279,8 +3316,9 @@
       <c r="M29" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -3302,8 +3340,9 @@
       <c r="M30" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -3325,8 +3364,9 @@
       <c r="M31" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -3348,8 +3388,9 @@
       <c r="M32" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -3371,8 +3412,9 @@
       <c r="M33" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -3397,8 +3439,9 @@
       <c r="M34" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -3423,8 +3466,9 @@
       <c r="M35" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -3446,8 +3490,9 @@
       <c r="M36" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -3472,8 +3517,9 @@
       <c r="M37" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -3495,8 +3541,9 @@
       <c r="M38" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -3521,8 +3568,9 @@
       <c r="M39" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>162</v>
       </c>
@@ -3550,8 +3598,9 @@
       <c r="M40" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -3573,8 +3622,9 @@
       <c r="M41" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -3599,8 +3649,9 @@
       <c r="M42" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -3625,8 +3676,9 @@
       <c r="M43" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -3651,8 +3703,9 @@
       <c r="M44" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -3674,8 +3727,9 @@
       <c r="M45" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -3700,8 +3754,9 @@
       <c r="M46" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -3729,8 +3784,9 @@
       <c r="M47" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -3755,8 +3811,9 @@
       <c r="M48" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -3781,8 +3838,9 @@
       <c r="M49" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -3807,8 +3865,9 @@
       <c r="M50" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -3830,8 +3889,9 @@
       <c r="M51" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -3856,8 +3916,9 @@
       <c r="M52" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -3882,8 +3943,9 @@
       <c r="M53" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>216</v>
       </c>
@@ -3905,8 +3967,9 @@
       <c r="M54" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>231</v>
       </c>
@@ -3931,8 +3994,9 @@
       <c r="M55" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>231</v>
       </c>
@@ -3957,8 +4021,9 @@
       <c r="M56" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>231</v>
       </c>
@@ -3980,8 +4045,9 @@
       <c r="M57" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>231</v>
       </c>
@@ -4006,8 +4072,9 @@
       <c r="M58" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N58" s="12"/>
+    </row>
+    <row r="59" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -4026,8 +4093,9 @@
       <c r="M59" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N59" s="12"/>
+    </row>
+    <row r="60" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>246</v>
       </c>
@@ -4049,8 +4117,9 @@
       <c r="M60" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+    </row>
+    <row r="61" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>246</v>
       </c>
@@ -4075,8 +4144,9 @@
       <c r="M61" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N61" s="12"/>
+    </row>
+    <row r="62" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>246</v>
       </c>
@@ -4101,8 +4171,9 @@
       <c r="M62" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N62" s="12"/>
+    </row>
+    <row r="63" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>259</v>
       </c>
@@ -4127,8 +4198,9 @@
       <c r="M63" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>259</v>
       </c>
@@ -4153,135 +4225,154 @@
       <c r="M64" s="12">
         <v>45510</v>
       </c>
-    </row>
-    <row r="65" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N65" s="12"/>
+    </row>
+    <row r="66" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N66" s="12"/>
+    </row>
+    <row r="67" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N69" s="12"/>
+    </row>
+    <row r="70" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="12"/>
+    </row>
+    <row r="71" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N71" s="12"/>
+    </row>
+    <row r="72" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N72" s="12"/>
+    </row>
+    <row r="73" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N73" s="12"/>
+    </row>
+    <row r="74" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N74" s="12"/>
+    </row>
+    <row r="75" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N75" s="12"/>
+    </row>
+    <row r="76" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N76" s="12"/>
+    </row>
+    <row r="77" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N77" s="12"/>
+    </row>
+    <row r="78" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N78" s="12"/>
+    </row>
+    <row r="79" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N79" s="12"/>
+    </row>
+    <row r="80" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N80" s="12"/>
+    </row>
+    <row r="81" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N81" s="12"/>
+    </row>
+    <row r="82" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N82" s="12"/>
+    </row>
+    <row r="83" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="6:6" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="6:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4475,7 +4566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F777B7D-0C15-D64C-A0EB-93AF9FFA310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830EC718-7A60-BB4A-B67A-701AEA4DF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
     <sheet name="Neetcode75" sheetId="2" r:id="rId2"/>
+    <sheet name="ImportantAlgorithms" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="282">
   <si>
     <t>Category</t>
   </si>
@@ -1879,9 +1880,6 @@
     <t>Number of Islands </t>
   </si>
   <si>
-    <t>do BFS and mark adjacent 1s as visited whenever you find a 1(non-visited), and then count it as an island</t>
-  </si>
-  <si>
     <t>function numIslands(grid):
     if grid is empty, return 0
     initialize rows, cols, visited, and islands
@@ -2052,6 +2050,27 @@
   </si>
   <si>
     <t>Revise Date</t>
+  </si>
+  <si>
+    <t>Sorting algorithms</t>
+  </si>
+  <si>
+    <t>Prim Kruskal, dijkstra</t>
+  </si>
+  <si>
+    <t>bfs and dfs</t>
+  </si>
+  <si>
+    <t>DAA algorithms</t>
+  </si>
+  <si>
+    <t>kadane</t>
+  </si>
+  <si>
+    <t>design patterns</t>
+  </si>
+  <si>
+    <t>basically just finding connected components except that for bfs they have a variation defined here(left right up down checking, easy only). do BFS and mark adjacent 1s as visited whenever you find a 1(non-visited), and then count it as an island. (also refer number of provinces problem before this one)</t>
   </si>
 </sst>
 </file>
@@ -2490,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2558,7 @@
         <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -2601,13 +2620,18 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="12">
         <v>45510</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="12">
+        <v>45511</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4103,10 +4127,10 @@
         <v>247</v>
       </c>
       <c r="C60" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4124,16 +4148,16 @@
         <v>246</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4151,16 +4175,16 @@
         <v>246</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -4175,19 +4199,19 @@
     </row>
     <row r="63" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -4202,19 +4226,19 @@
     </row>
     <row r="64" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -4635,7 +4659,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="K3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4659,16 +4683,16 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" t="s">
         <v>269</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>271</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -4797,13 +4821,13 @@
         <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
@@ -5178,7 +5202,7 @@
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
@@ -5186,7 +5210,7 @@
     </row>
     <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
@@ -5421,4 +5445,54 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6D4F37-37E3-1441-8484-620D31E44115}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830EC718-7A60-BB4A-B67A-701AEA4DF749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D2234A-5A70-A84B-BEF3-C717F704449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27680" yWindow="2360" windowWidth="23360" windowHeight="14660" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -156,9 +156,6 @@
    - If the current window size minus `maxf` is greater than `k`, decrement the count of `s[l]` and increment `l`.
 3. Return the size of the largest valid window: `r - l + 1`.
 </t>
-  </si>
-  <si>
-    <t>similar to above problem(repeating character one), keep track and subtract. If it doesn’t match condition, drop chars on the left till it does</t>
   </si>
   <si>
     <t>Here's a concise pseudocode for the given problem:
@@ -2071,6 +2068,12 @@
   </si>
   <si>
     <t>basically just finding connected components except that for bfs they have a variation defined here(left right up down checking, easy only). do BFS and mark adjacent 1s as visited whenever you find a 1(non-visited), and then count it as an island. (also refer number of provinces problem before this one)</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters </t>
+  </si>
+  <si>
+    <t>similar to above problem(repeating character one, without replacement), keep track and subtract. If it doesn’t match condition, drop chars on the left till it does</t>
   </si>
 </sst>
 </file>
@@ -2509,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,13 +2555,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -2603,7 +2606,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2641,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>26</v>
@@ -2653,6 +2656,9 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
@@ -2668,16 +2674,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -2695,16 +2701,16 @@
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -2719,19 +2725,19 @@
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -2779,16 +2785,16 @@
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
@@ -2807,17 +2813,17 @@
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
@@ -2825,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="12">
         <v>45510</v>
@@ -2834,16 +2840,16 @@
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -2858,17 +2864,17 @@
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M12" s="12">
         <v>45510</v>
@@ -2885,16 +2891,16 @@
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2909,20 +2915,20 @@
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M14" s="12">
         <v>45510</v>
@@ -2939,20 +2945,20 @@
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M15" s="12">
         <v>45510</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -2996,19 +3002,19 @@
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -3023,19 +3029,19 @@
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -3050,19 +3056,19 @@
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -3077,19 +3083,19 @@
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -3104,16 +3110,16 @@
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3128,16 +3134,16 @@
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -3206,19 +3212,19 @@
     </row>
     <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -3233,19 +3239,19 @@
     </row>
     <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -3260,19 +3266,19 @@
     </row>
     <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -3287,20 +3293,20 @@
     </row>
     <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M28" s="12">
         <v>45510</v>
@@ -3317,19 +3323,19 @@
     </row>
     <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -3344,16 +3350,16 @@
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -3368,16 +3374,16 @@
     </row>
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -3392,16 +3398,16 @@
     </row>
     <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -3416,16 +3422,16 @@
     </row>
     <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -3440,25 +3446,25 @@
     </row>
     <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
         <v>145</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>146</v>
       </c>
       <c r="M34" s="12">
         <v>45510</v>
@@ -3467,19 +3473,19 @@
     </row>
     <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -3494,16 +3500,16 @@
     </row>
     <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -3518,19 +3524,19 @@
     </row>
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -3545,16 +3551,16 @@
     </row>
     <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -3569,19 +3575,19 @@
     </row>
     <row r="39" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -3596,28 +3602,28 @@
     </row>
     <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
         <v>168</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
-        <v>169</v>
       </c>
       <c r="M40" s="12">
         <v>45510</v>
@@ -3626,16 +3632,16 @@
     </row>
     <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -3650,19 +3656,19 @@
     </row>
     <row r="42" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -3677,19 +3683,19 @@
     </row>
     <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -3704,19 +3710,19 @@
     </row>
     <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -3731,16 +3737,16 @@
     </row>
     <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -3755,19 +3761,19 @@
     </row>
     <row r="46" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="E46" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -3782,28 +3788,28 @@
     </row>
     <row r="47" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>194</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>195</v>
       </c>
       <c r="M47" s="12">
         <v>45510</v>
@@ -3812,19 +3818,19 @@
     </row>
     <row r="48" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -3839,19 +3845,19 @@
     </row>
     <row r="49" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>207</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -3866,19 +3872,19 @@
     </row>
     <row r="50" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>207</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -3893,16 +3899,16 @@
     </row>
     <row r="51" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -3917,19 +3923,19 @@
     </row>
     <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -3944,19 +3950,19 @@
     </row>
     <row r="53" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -3971,16 +3977,16 @@
     </row>
     <row r="54" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -3995,19 +4001,19 @@
     </row>
     <row r="55" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C55" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -4022,19 +4028,19 @@
     </row>
     <row r="56" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -4049,16 +4055,16 @@
     </row>
     <row r="57" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -4073,19 +4079,19 @@
     </row>
     <row r="58" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -4100,13 +4106,13 @@
     </row>
     <row r="59" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
         <v>229</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C59" t="s">
-        <v>230</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -4121,16 +4127,16 @@
     </row>
     <row r="60" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4145,19 +4151,19 @@
     </row>
     <row r="61" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4172,19 +4178,19 @@
     </row>
     <row r="62" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -4199,19 +4205,19 @@
     </row>
     <row r="63" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -4226,19 +4232,19 @@
     </row>
     <row r="64" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -4519,68 +4525,68 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{75EC1794-1CF8-A044-BE84-82BA083360E4}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://neetcode.io/problems/longest-repeating-substring-with-replacement" xr:uid="{7CDC05C3-3DD6-2347-BA74-D448997A6BB3}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://neetcode.io/problems/longest-repeating-substring-with-replacement" xr:uid="{BD0ADE33-122A-2F40-AFBE-775DC1B725F8}"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://neetcode.io/problems/minimum-window-with-characters" xr:uid="{97D5BFB2-729E-2A47-A124-FAFD6A275168}"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://neetcode.io/problems/is-palindrome" xr:uid="{925418BF-52B3-BE4B-9008-C6C08BEFA32E}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://neetcode.io/problems/three-integer-sum" xr:uid="{95337B91-D1A4-DA4E-8289-6C692D21A8AF}"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://neetcode.io/problems/max-water-container" xr:uid="{578CB47E-3B0F-3C45-BAE2-DC02BC239C03}"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{1F3F5FA3-D42F-B94E-82B0-24F817D80EBB}"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://neetcode.io/problems/find-minimum-in-rotated-sorted-array" xr:uid="{C6EDED79-6D8E-8843-99F1-ECBA49349E03}"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://neetcode.io/problems/find-target-in-rotated-sorted-array" xr:uid="{510497A1-3ACB-1A40-A017-2B211237C3EC}"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://neetcode.io/problems/reverse-a-linked-list" xr:uid="{F1D5B347-75DA-8F44-95F4-EBC12A45E144}"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://neetcode.io/problems/merge-two-sorted-linked-lists" xr:uid="{00F47F2F-ECD3-3D47-AE36-BB55D6CA3DE2}"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://neetcode.io/problems/linked-list-cycle-detection" xr:uid="{C73BD96A-E0F9-074A-8348-9F342D5C5307}"/>
-    <hyperlink ref="B15" r:id="rId14" display="https://neetcode.io/problems/reorder-linked-list" xr:uid="{AA53E998-81B8-834C-923C-9B76814166B7}"/>
-    <hyperlink ref="B16" r:id="rId15" display="https://neetcode.io/problems/remove-node-from-end-of-linked-list" xr:uid="{3978F454-A1ED-2E47-B297-93196592774C}"/>
-    <hyperlink ref="B17" r:id="rId16" display="https://neetcode.io/problems/merge-k-sorted-linked-lists" xr:uid="{9C3CE5D7-5815-8B46-A597-056735108E1F}"/>
-    <hyperlink ref="B18" r:id="rId17" display="https://neetcode.io/problems/combination-target-sum" xr:uid="{D707242E-14DF-5D4E-AFFE-C84916685B71}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/search-for-word" xr:uid="{BF516528-D0FF-A643-A8D9-B94190B50B3C}"/>
-    <hyperlink ref="B20" r:id="rId19" display="https://neetcode.io/problems/duplicate-integer" xr:uid="{3875B682-ED40-3242-9FA6-D90119162AF7}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://neetcode.io/problems/is-anagram" xr:uid="{2B57C655-1386-C947-858F-4317FDFB0D92}"/>
-    <hyperlink ref="B22" r:id="rId21" display="https://neetcode.io/problems/two-integer-sum" xr:uid="{527061F0-9AAF-1A40-A47D-95537613298E}"/>
-    <hyperlink ref="B23" r:id="rId22" display="https://neetcode.io/problems/anagram-groups" xr:uid="{70FC1425-DCD0-9543-BF04-BD7D6821FAF1}"/>
-    <hyperlink ref="B25" r:id="rId23" display="https://neetcode.io/problems/products-of-array-discluding-self" xr:uid="{CE7DC939-4F90-A44D-9EF1-2DF54DACEE71}"/>
-    <hyperlink ref="B26" r:id="rId24" display="https://neetcode.io/problems/longest-consecutive-sequence" xr:uid="{4E062C1B-ADA0-3843-82F2-8C669E1F440E}"/>
-    <hyperlink ref="B27" r:id="rId25" display="https://neetcode.io/problems/rotate-matrix" xr:uid="{62C51741-11CA-F748-A94E-19EA68262331}"/>
-    <hyperlink ref="B28" r:id="rId26" display="https://neetcode.io/problems/spiral-matrix" xr:uid="{F62C5BFD-B341-404F-B3D3-11D407908240}"/>
-    <hyperlink ref="B29" r:id="rId27" display="https://neetcode.io/problems/set-zeroes-in-matrix" xr:uid="{AF585974-C8CE-FA4F-A3A5-584035016192}"/>
-    <hyperlink ref="B30" r:id="rId28" display="https://neetcode.io/problems/invert-a-binary-tree" xr:uid="{23F4F5D2-EBC5-0B42-8E99-97A5FC978102}"/>
-    <hyperlink ref="B31" r:id="rId29" display="https://neetcode.io/problems/depth-of-binary-tree" xr:uid="{2134BCD9-73C5-2E45-BF34-0175121AFF59}"/>
-    <hyperlink ref="B32" r:id="rId30" display="https://neetcode.io/problems/same-binary-tree" xr:uid="{8AF9261E-D364-134F-B7B7-8C79BD90A768}"/>
-    <hyperlink ref="B33" r:id="rId31" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
-    <hyperlink ref="B34" r:id="rId32" display="https://neetcode.io/problems/lowest-common-ancestor-in-binary-search-tree" xr:uid="{159CE993-32D5-5642-8C4D-75540899B343}"/>
-    <hyperlink ref="B35" r:id="rId33" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
-    <hyperlink ref="B37" r:id="rId34" display="https://neetcode.io/problems/kth-smallest-integer-in-bst" xr:uid="{2804BE54-CD1B-5847-BC91-01C1185BB0A7}"/>
-    <hyperlink ref="B36" r:id="rId35" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
-    <hyperlink ref="B38" r:id="rId36" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
-    <hyperlink ref="B39" r:id="rId37" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
-    <hyperlink ref="B40" r:id="rId38" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
-    <hyperlink ref="B41" r:id="rId39" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
-    <hyperlink ref="B42" r:id="rId40" display="https://neetcode.io/problems/longest-palindromic-substring" xr:uid="{F46C0D3D-86BE-5F41-BBEA-BD6B55855415}"/>
-    <hyperlink ref="B43" r:id="rId41" display="https://neetcode.io/problems/palindromic-substrings" xr:uid="{D6FD2856-17D2-6043-BF6C-324D31927E5D}"/>
-    <hyperlink ref="B44" r:id="rId42" display="https://neetcode.io/problems/decode-ways" xr:uid="{CC50AEDC-C49C-8D49-96D9-42474B633467}"/>
-    <hyperlink ref="B45" r:id="rId43" display="https://neetcode.io/problems/coin-change" xr:uid="{92C09128-F580-9945-B7DE-F75887FDE2F5}"/>
-    <hyperlink ref="B46" r:id="rId44" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{0A0BAAB7-8A55-0B4A-99C2-5045410717B0}"/>
-    <hyperlink ref="B47" r:id="rId45" display="https://neetcode.io/problems/word-break" xr:uid="{89E52913-3F4C-704E-9026-AF11D18CD21D}"/>
-    <hyperlink ref="B24" r:id="rId46" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{9CDB9CBD-F8A2-8D48-82BA-F39270BA6CA2}"/>
-    <hyperlink ref="B48" r:id="rId47" display="https://neetcode.io/problems/longest-increasing-subsequence" xr:uid="{BCB217F4-C89C-BE42-8619-A99B1A2DA7FE}"/>
-    <hyperlink ref="B49" r:id="rId48" display="https://neetcode.io/problems/binary-tree-maximum-path-sum" xr:uid="{0A382EC8-7ADC-F842-A385-EA243308C78E}"/>
-    <hyperlink ref="B50" r:id="rId49" display="https://neetcode.io/problems/count-paths" xr:uid="{EE1B9D9D-2221-E045-9E4E-07537135B9A8}"/>
-    <hyperlink ref="B51" r:id="rId50" display="https://neetcode.io/problems/longest-common-subsequence" xr:uid="{002246E8-3969-1F4E-AEA1-A3CA8A3DFB84}"/>
-    <hyperlink ref="B52" r:id="rId51" display="https://neetcode.io/problems/insert-new-interval" xr:uid="{732EC2E2-DB8E-CF43-9D85-39B5E23A9042}"/>
-    <hyperlink ref="B53" r:id="rId52" display="https://neetcode.io/problems/merge-intervals" xr:uid="{C938C9C9-8192-9043-AAFA-40955C078613}"/>
-    <hyperlink ref="B54" r:id="rId53" display="https://neetcode.io/problems/non-overlapping-intervals" xr:uid="{22823251-5EE1-F54A-BED7-B9F3C7E00ED5}"/>
-    <hyperlink ref="B59" r:id="rId54" display="https://neetcode.io/problems/foreign-dictionary" xr:uid="{9A2AE8DB-AA45-994B-BE5F-BDFCB583925E}"/>
-    <hyperlink ref="B55" r:id="rId55" display="https://neetcode.io/problems/number-of-one-bits" xr:uid="{1D8EE561-EEAF-EF45-95DA-0490AE5E1BB3}"/>
-    <hyperlink ref="B56" r:id="rId56" display="https://neetcode.io/problems/counting-bits" xr:uid="{3C8742FF-4C52-7945-A27E-DA6EB3129E16}"/>
-    <hyperlink ref="B57" r:id="rId57" display="https://neetcode.io/problems/reverse-bits" xr:uid="{E15627E1-508B-364D-83F0-F0BB90B6CCE4}"/>
-    <hyperlink ref="B58" r:id="rId58" display="https://neetcode.io/problems/missing-number" xr:uid="{853F6E34-42B7-4741-BCE3-B5694D2A70A1}"/>
-    <hyperlink ref="B60" r:id="rId59" display="https://neetcode.io/problems/count-number-of-islands" xr:uid="{D819ED46-1AD5-374D-8BC0-EFC815256505}"/>
-    <hyperlink ref="B61" r:id="rId60" display="https://neetcode.io/problems/clone-graph" xr:uid="{B3345676-7611-3645-B596-0FCA5ADA0AEF}"/>
-    <hyperlink ref="B62" r:id="rId61" display="https://neetcode.io/problems/pacific-atlantic-water-flow" xr:uid="{DA633310-0866-3B41-A6DE-F91E07490819}"/>
-    <hyperlink ref="B63" r:id="rId62" display="https://neetcode.io/problems/maximum-subarray" xr:uid="{4A05A837-E4AE-7140-9451-181D9040521C}"/>
-    <hyperlink ref="B64" r:id="rId63" display="https://neetcode.io/problems/jump-game" xr:uid="{E1865FE4-3DF1-474B-9107-A6E781211C98}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://neetcode.io/problems/longest-repeating-substring-with-replacement" xr:uid="{BD0ADE33-122A-2F40-AFBE-775DC1B725F8}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://neetcode.io/problems/minimum-window-with-characters" xr:uid="{97D5BFB2-729E-2A47-A124-FAFD6A275168}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://neetcode.io/problems/is-palindrome" xr:uid="{925418BF-52B3-BE4B-9008-C6C08BEFA32E}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://neetcode.io/problems/three-integer-sum" xr:uid="{95337B91-D1A4-DA4E-8289-6C692D21A8AF}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://neetcode.io/problems/max-water-container" xr:uid="{578CB47E-3B0F-3C45-BAE2-DC02BC239C03}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{1F3F5FA3-D42F-B94E-82B0-24F817D80EBB}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://neetcode.io/problems/find-minimum-in-rotated-sorted-array" xr:uid="{C6EDED79-6D8E-8843-99F1-ECBA49349E03}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://neetcode.io/problems/find-target-in-rotated-sorted-array" xr:uid="{510497A1-3ACB-1A40-A017-2B211237C3EC}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://neetcode.io/problems/reverse-a-linked-list" xr:uid="{F1D5B347-75DA-8F44-95F4-EBC12A45E144}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://neetcode.io/problems/merge-two-sorted-linked-lists" xr:uid="{00F47F2F-ECD3-3D47-AE36-BB55D6CA3DE2}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://neetcode.io/problems/linked-list-cycle-detection" xr:uid="{C73BD96A-E0F9-074A-8348-9F342D5C5307}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://neetcode.io/problems/reorder-linked-list" xr:uid="{AA53E998-81B8-834C-923C-9B76814166B7}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://neetcode.io/problems/remove-node-from-end-of-linked-list" xr:uid="{3978F454-A1ED-2E47-B297-93196592774C}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://neetcode.io/problems/merge-k-sorted-linked-lists" xr:uid="{9C3CE5D7-5815-8B46-A597-056735108E1F}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://neetcode.io/problems/combination-target-sum" xr:uid="{D707242E-14DF-5D4E-AFFE-C84916685B71}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://neetcode.io/problems/search-for-word" xr:uid="{BF516528-D0FF-A643-A8D9-B94190B50B3C}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://neetcode.io/problems/duplicate-integer" xr:uid="{3875B682-ED40-3242-9FA6-D90119162AF7}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://neetcode.io/problems/is-anagram" xr:uid="{2B57C655-1386-C947-858F-4317FDFB0D92}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://neetcode.io/problems/two-integer-sum" xr:uid="{527061F0-9AAF-1A40-A47D-95537613298E}"/>
+    <hyperlink ref="B23" r:id="rId21" display="https://neetcode.io/problems/anagram-groups" xr:uid="{70FC1425-DCD0-9543-BF04-BD7D6821FAF1}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://neetcode.io/problems/products-of-array-discluding-self" xr:uid="{CE7DC939-4F90-A44D-9EF1-2DF54DACEE71}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://neetcode.io/problems/longest-consecutive-sequence" xr:uid="{4E062C1B-ADA0-3843-82F2-8C669E1F440E}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://neetcode.io/problems/rotate-matrix" xr:uid="{62C51741-11CA-F748-A94E-19EA68262331}"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://neetcode.io/problems/spiral-matrix" xr:uid="{F62C5BFD-B341-404F-B3D3-11D407908240}"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://neetcode.io/problems/set-zeroes-in-matrix" xr:uid="{AF585974-C8CE-FA4F-A3A5-584035016192}"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://neetcode.io/problems/invert-a-binary-tree" xr:uid="{23F4F5D2-EBC5-0B42-8E99-97A5FC978102}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://neetcode.io/problems/depth-of-binary-tree" xr:uid="{2134BCD9-73C5-2E45-BF34-0175121AFF59}"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://neetcode.io/problems/same-binary-tree" xr:uid="{8AF9261E-D364-134F-B7B7-8C79BD90A768}"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://neetcode.io/problems/subtree-of-a-binary-tree" xr:uid="{7B7A2977-FAAE-3E4D-9F52-976D1F4F4A17}"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://neetcode.io/problems/lowest-common-ancestor-in-binary-search-tree" xr:uid="{159CE993-32D5-5642-8C4D-75540899B343}"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://neetcode.io/problems/level-order-traversal-of-binary-tree" xr:uid="{C841EDDF-306D-8847-8EAE-F23A5F0494C7}"/>
+    <hyperlink ref="B37" r:id="rId33" display="https://neetcode.io/problems/kth-smallest-integer-in-bst" xr:uid="{2804BE54-CD1B-5847-BC91-01C1185BB0A7}"/>
+    <hyperlink ref="B36" r:id="rId34" display="https://neetcode.io/problems/valid-binary-search-tree" xr:uid="{03349B3C-ABAB-B94A-8A26-5E068E87E65A}"/>
+    <hyperlink ref="B38" r:id="rId35" display="https://neetcode.io/problems/binary-tree-from-preorder-and-inorder-traversal" xr:uid="{C00137CB-E00D-5E42-B4F5-2278B255197B}"/>
+    <hyperlink ref="B39" r:id="rId36" display="https://neetcode.io/problems/climbing-stairs" xr:uid="{37D160E0-9CAB-0444-BFB0-723DE0C53234}"/>
+    <hyperlink ref="B40" r:id="rId37" display="https://neetcode.io/problems/house-robber" xr:uid="{CEEDF22F-C940-E14C-8ED6-0F0B0E2BD726}"/>
+    <hyperlink ref="B41" r:id="rId38" display="https://neetcode.io/problems/house-robber-ii" xr:uid="{CD001850-98D3-BC45-92E9-9145B51D7C2D}"/>
+    <hyperlink ref="B42" r:id="rId39" display="https://neetcode.io/problems/longest-palindromic-substring" xr:uid="{F46C0D3D-86BE-5F41-BBEA-BD6B55855415}"/>
+    <hyperlink ref="B43" r:id="rId40" display="https://neetcode.io/problems/palindromic-substrings" xr:uid="{D6FD2856-17D2-6043-BF6C-324D31927E5D}"/>
+    <hyperlink ref="B44" r:id="rId41" display="https://neetcode.io/problems/decode-ways" xr:uid="{CC50AEDC-C49C-8D49-96D9-42474B633467}"/>
+    <hyperlink ref="B45" r:id="rId42" display="https://neetcode.io/problems/coin-change" xr:uid="{92C09128-F580-9945-B7DE-F75887FDE2F5}"/>
+    <hyperlink ref="B46" r:id="rId43" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{0A0BAAB7-8A55-0B4A-99C2-5045410717B0}"/>
+    <hyperlink ref="B47" r:id="rId44" display="https://neetcode.io/problems/word-break" xr:uid="{89E52913-3F4C-704E-9026-AF11D18CD21D}"/>
+    <hyperlink ref="B24" r:id="rId45" display="https://neetcode.io/problems/top-k-elements-in-list" xr:uid="{9CDB9CBD-F8A2-8D48-82BA-F39270BA6CA2}"/>
+    <hyperlink ref="B48" r:id="rId46" display="https://neetcode.io/problems/longest-increasing-subsequence" xr:uid="{BCB217F4-C89C-BE42-8619-A99B1A2DA7FE}"/>
+    <hyperlink ref="B49" r:id="rId47" display="https://neetcode.io/problems/binary-tree-maximum-path-sum" xr:uid="{0A382EC8-7ADC-F842-A385-EA243308C78E}"/>
+    <hyperlink ref="B50" r:id="rId48" display="https://neetcode.io/problems/count-paths" xr:uid="{EE1B9D9D-2221-E045-9E4E-07537135B9A8}"/>
+    <hyperlink ref="B51" r:id="rId49" display="https://neetcode.io/problems/longest-common-subsequence" xr:uid="{002246E8-3969-1F4E-AEA1-A3CA8A3DFB84}"/>
+    <hyperlink ref="B52" r:id="rId50" display="https://neetcode.io/problems/insert-new-interval" xr:uid="{732EC2E2-DB8E-CF43-9D85-39B5E23A9042}"/>
+    <hyperlink ref="B53" r:id="rId51" display="https://neetcode.io/problems/merge-intervals" xr:uid="{C938C9C9-8192-9043-AAFA-40955C078613}"/>
+    <hyperlink ref="B54" r:id="rId52" display="https://neetcode.io/problems/non-overlapping-intervals" xr:uid="{22823251-5EE1-F54A-BED7-B9F3C7E00ED5}"/>
+    <hyperlink ref="B59" r:id="rId53" display="https://neetcode.io/problems/foreign-dictionary" xr:uid="{9A2AE8DB-AA45-994B-BE5F-BDFCB583925E}"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://neetcode.io/problems/number-of-one-bits" xr:uid="{1D8EE561-EEAF-EF45-95DA-0490AE5E1BB3}"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://neetcode.io/problems/counting-bits" xr:uid="{3C8742FF-4C52-7945-A27E-DA6EB3129E16}"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://neetcode.io/problems/reverse-bits" xr:uid="{E15627E1-508B-364D-83F0-F0BB90B6CCE4}"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://neetcode.io/problems/missing-number" xr:uid="{853F6E34-42B7-4741-BCE3-B5694D2A70A1}"/>
+    <hyperlink ref="B60" r:id="rId58" display="https://neetcode.io/problems/count-number-of-islands" xr:uid="{D819ED46-1AD5-374D-8BC0-EFC815256505}"/>
+    <hyperlink ref="B61" r:id="rId59" display="https://neetcode.io/problems/clone-graph" xr:uid="{B3345676-7611-3645-B596-0FCA5ADA0AEF}"/>
+    <hyperlink ref="B62" r:id="rId60" display="https://neetcode.io/problems/pacific-atlantic-water-flow" xr:uid="{DA633310-0866-3B41-A6DE-F91E07490819}"/>
+    <hyperlink ref="B63" r:id="rId61" display="https://neetcode.io/problems/maximum-subarray" xr:uid="{4A05A837-E4AE-7140-9451-181D9040521C}"/>
+    <hyperlink ref="B64" r:id="rId62" display="https://neetcode.io/problems/jump-game" xr:uid="{E1865FE4-3DF1-474B-9107-A6E781211C98}"/>
+    <hyperlink ref="B3" r:id="rId63" display="https://neetcode.io/problems/longest-substring-without-duplicates" xr:uid="{589CF3E2-3727-8F4B-8E06-C31C362E7843}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4633,10 +4639,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -4659,7 +4665,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4680,19 +4686,19 @@
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" t="s">
         <v>268</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -4700,7 +4706,7 @@
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
@@ -4710,14 +4716,14 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="7"/>
@@ -4726,7 +4732,7 @@
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="9"/>
@@ -4734,7 +4740,7 @@
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
@@ -4742,7 +4748,7 @@
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="9"/>
@@ -4750,7 +4756,7 @@
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
@@ -4758,7 +4764,7 @@
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
@@ -4780,7 +4786,7 @@
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
@@ -4788,7 +4794,7 @@
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
@@ -4798,7 +4804,7 @@
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
@@ -4808,7 +4814,7 @@
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
@@ -4818,16 +4824,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
@@ -4836,7 +4842,7 @@
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
@@ -4844,7 +4850,7 @@
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
@@ -4852,7 +4858,7 @@
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
@@ -4862,7 +4868,7 @@
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
@@ -4871,7 +4877,7 @@
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
@@ -4881,7 +4887,7 @@
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
@@ -4889,7 +4895,7 @@
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2"/>
       <c r="D27" s="7"/>
@@ -4898,7 +4904,7 @@
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2"/>
       <c r="D28" s="7"/>
@@ -4907,7 +4913,7 @@
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
@@ -4917,7 +4923,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
@@ -4925,7 +4931,7 @@
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="9"/>
@@ -4941,7 +4947,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="9"/>
@@ -4949,7 +4955,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
@@ -4957,7 +4963,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="9"/>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
@@ -4985,7 +4991,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
@@ -4993,7 +4999,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
@@ -5001,7 +5007,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="9"/>
@@ -5011,7 +5017,7 @@
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
@@ -5019,7 +5025,7 @@
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="9"/>
@@ -5027,7 +5033,7 @@
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="9"/>
@@ -5035,7 +5041,7 @@
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
@@ -5045,7 +5051,7 @@
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
@@ -5053,7 +5059,7 @@
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
@@ -5061,7 +5067,7 @@
     </row>
     <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
@@ -5069,7 +5075,7 @@
     </row>
     <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="9"/>
@@ -5077,7 +5083,7 @@
     </row>
     <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="9"/>
@@ -5087,7 +5093,7 @@
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
@@ -5097,7 +5103,7 @@
     </row>
     <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
@@ -5105,7 +5111,7 @@
     </row>
     <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
@@ -5115,7 +5121,7 @@
     </row>
     <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
@@ -5125,7 +5131,7 @@
     </row>
     <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
@@ -5133,7 +5139,7 @@
     </row>
     <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="9"/>
@@ -5142,7 +5148,7 @@
     </row>
     <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
@@ -5152,7 +5158,7 @@
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
@@ -5170,13 +5176,13 @@
     </row>
     <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="9"/>
@@ -5184,7 +5190,7 @@
     </row>
     <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
@@ -5194,7 +5200,7 @@
     </row>
     <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
@@ -5202,7 +5208,7 @@
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
@@ -5459,37 +5465,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D2234A-5A70-A84B-BEF3-C717F704449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA2407-B64A-3540-85A8-75BA1A0E6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>have counters for both given string t and match key by key  for each substring</t>
-  </si>
-  <si>
-    <t>See comments in git repo code</t>
   </si>
   <si>
     <t>Two Pointers</t>
@@ -2074,6 +2071,9 @@
   </si>
   <si>
     <t>similar to above problem(repeating character one, without replacement), keep track and subtract. If it doesn’t match condition, drop chars on the left till it does</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use sliding window + counter dicts to keep track of whether all chars of t are in s. this takes O(n^2) time. We can reduce this time by just checking count of have variables vs need variables(increment have only when complete count for a particular char has been met, say 3 Bs) + check for the character we just added if it is in have/need instead of checking for every single char in t everytime we add a char to substring window. neetcode's video explains easily. </t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2555,13 +2555,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2644,7 +2644,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>26</v>
@@ -2674,10 +2674,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -2691,6 +2691,9 @@
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J5" t="s">
         <v>7</v>
       </c>
@@ -2701,16 +2704,16 @@
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -2725,19 +2728,19 @@
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -2755,19 +2758,19 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -2785,16 +2788,16 @@
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" t="s">
@@ -2813,17 +2816,17 @@
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="12">
         <v>45510</v>
@@ -2840,16 +2843,16 @@
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -2864,17 +2867,17 @@
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="12">
         <v>45510</v>
@@ -2891,16 +2894,16 @@
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2915,20 +2918,20 @@
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M14" s="12">
         <v>45510</v>
@@ -2945,20 +2948,20 @@
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M15" s="12">
         <v>45510</v>
@@ -2975,19 +2978,19 @@
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -3002,19 +3005,19 @@
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -3029,19 +3032,19 @@
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
@@ -3056,19 +3059,19 @@
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>13</v>
@@ -3083,19 +3086,19 @@
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -3110,16 +3113,16 @@
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
@@ -3134,16 +3137,16 @@
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -3158,19 +3161,19 @@
     </row>
     <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -3185,19 +3188,19 @@
     </row>
     <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -3212,19 +3215,19 @@
     </row>
     <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -3239,19 +3242,19 @@
     </row>
     <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
@@ -3266,19 +3269,19 @@
     </row>
     <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
@@ -3293,20 +3296,20 @@
     </row>
     <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M28" s="12">
         <v>45510</v>
@@ -3323,19 +3326,19 @@
     </row>
     <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="F29" t="s">
         <v>13</v>
@@ -3350,16 +3353,16 @@
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -3374,16 +3377,16 @@
     </row>
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -3398,16 +3401,16 @@
     </row>
     <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -3422,16 +3425,16 @@
     </row>
     <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -3446,25 +3449,25 @@
     </row>
     <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
         <v>144</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>145</v>
       </c>
       <c r="M34" s="12">
         <v>45510</v>
@@ -3473,19 +3476,19 @@
     </row>
     <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -3500,16 +3503,16 @@
     </row>
     <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -3524,19 +3527,19 @@
     </row>
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -3551,16 +3554,16 @@
     </row>
     <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -3575,19 +3578,19 @@
     </row>
     <row r="39" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -3602,28 +3605,28 @@
     </row>
     <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
         <v>167</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
-        <v>168</v>
       </c>
       <c r="M40" s="12">
         <v>45510</v>
@@ -3632,16 +3635,16 @@
     </row>
     <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -3656,19 +3659,19 @@
     </row>
     <row r="42" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -3683,19 +3686,19 @@
     </row>
     <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -3710,19 +3713,19 @@
     </row>
     <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -3737,16 +3740,16 @@
     </row>
     <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>187</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -3761,19 +3764,19 @@
     </row>
     <row r="46" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="E46" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -3788,28 +3791,28 @@
     </row>
     <row r="47" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>193</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>194</v>
       </c>
       <c r="M47" s="12">
         <v>45510</v>
@@ -3818,19 +3821,19 @@
     </row>
     <row r="48" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>202</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -3845,19 +3848,19 @@
     </row>
     <row r="49" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>206</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -3872,19 +3875,19 @@
     </row>
     <row r="50" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -3899,16 +3902,16 @@
     </row>
     <row r="51" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -3923,19 +3926,19 @@
     </row>
     <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -3950,19 +3953,19 @@
     </row>
     <row r="53" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -3977,16 +3980,16 @@
     </row>
     <row r="54" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -4001,19 +4004,19 @@
     </row>
     <row r="55" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C55" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -4028,19 +4031,19 @@
     </row>
     <row r="56" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -4055,16 +4058,16 @@
     </row>
     <row r="57" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -4079,19 +4082,19 @@
     </row>
     <row r="58" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -4106,13 +4109,13 @@
     </row>
     <row r="59" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" t="s">
         <v>228</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C59" t="s">
-        <v>229</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -4127,16 +4130,16 @@
     </row>
     <row r="60" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4151,19 +4154,19 @@
     </row>
     <row r="61" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4178,19 +4181,19 @@
     </row>
     <row r="62" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -4205,19 +4208,19 @@
     </row>
     <row r="63" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -4232,19 +4235,19 @@
     </row>
     <row r="64" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -4639,10 +4642,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -4665,7 +4668,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4686,19 +4689,19 @@
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
         <v>267</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -4706,7 +4709,7 @@
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
@@ -4716,14 +4719,14 @@
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2"/>
       <c r="D9" s="7"/>
@@ -4732,7 +4735,7 @@
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="9"/>
@@ -4740,7 +4743,7 @@
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
@@ -4748,7 +4751,7 @@
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="9"/>
@@ -4756,7 +4759,7 @@
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
@@ -4764,7 +4767,7 @@
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
@@ -4775,7 +4778,7 @@
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
@@ -4794,7 +4797,7 @@
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
@@ -4814,7 +4817,7 @@
     </row>
     <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="9"/>
@@ -4824,16 +4827,16 @@
     </row>
     <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="4" t="s">
@@ -4842,7 +4845,7 @@
     </row>
     <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
@@ -4850,7 +4853,7 @@
     </row>
     <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
@@ -4858,7 +4861,7 @@
     </row>
     <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
@@ -4868,7 +4871,7 @@
     </row>
     <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
@@ -4877,7 +4880,7 @@
     </row>
     <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
@@ -4887,7 +4890,7 @@
     </row>
     <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
@@ -4895,7 +4898,7 @@
     </row>
     <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2"/>
       <c r="D27" s="7"/>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="2"/>
       <c r="D28" s="7"/>
@@ -4913,7 +4916,7 @@
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
@@ -4931,7 +4934,7 @@
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
@@ -4939,7 +4942,7 @@
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="9"/>
@@ -4947,7 +4950,7 @@
     </row>
     <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="9"/>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
@@ -4963,7 +4966,7 @@
     </row>
     <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
@@ -4973,7 +4976,7 @@
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="9"/>
@@ -4981,7 +4984,7 @@
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
@@ -4991,7 +4994,7 @@
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
@@ -4999,7 +5002,7 @@
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
@@ -5007,7 +5010,7 @@
     </row>
     <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="9"/>
@@ -5017,7 +5020,7 @@
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
@@ -5025,7 +5028,7 @@
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="9"/>
@@ -5033,7 +5036,7 @@
     </row>
     <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="9"/>
@@ -5041,7 +5044,7 @@
     </row>
     <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
@@ -5051,7 +5054,7 @@
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
@@ -5059,7 +5062,7 @@
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
@@ -5067,7 +5070,7 @@
     </row>
     <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
@@ -5075,7 +5078,7 @@
     </row>
     <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="9"/>
@@ -5083,7 +5086,7 @@
     </row>
     <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="9"/>
@@ -5093,7 +5096,7 @@
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
@@ -5103,7 +5106,7 @@
     </row>
     <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
@@ -5131,7 +5134,7 @@
     </row>
     <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
@@ -5139,7 +5142,7 @@
     </row>
     <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="9"/>
@@ -5148,7 +5151,7 @@
     </row>
     <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
@@ -5158,7 +5161,7 @@
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
@@ -5166,7 +5169,7 @@
     </row>
     <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
@@ -5176,13 +5179,13 @@
     </row>
     <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="9"/>
@@ -5190,7 +5193,7 @@
     </row>
     <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
@@ -5200,7 +5203,7 @@
     </row>
     <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
@@ -5465,37 +5468,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA2407-B64A-3540-85A8-75BA1A0E6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A495A1C-0B8F-7F42-B03D-86D40432AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="283">
   <si>
     <t>Category</t>
   </si>
@@ -2513,7 +2513,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2667,9 @@
       <c r="M4" s="12">
         <v>45510</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12">
+        <v>45512</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2700,7 +2702,9 @@
       <c r="M5" s="12">
         <v>45510</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="12">
+        <v>45512</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2721,10 +2725,15 @@
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="M6" s="12">
         <v>45510</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="12">
+        <v>45516</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2748,13 +2757,18 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="12">
         <v>45510</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12">
+        <v>45516</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2778,13 +2792,18 @@
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J8" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="12">
         <v>45510</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="12">
+        <v>45516</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A495A1C-0B8F-7F42-B03D-86D40432AC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D67F6B-6E8F-9643-B2A3-0A752248DF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="286">
   <si>
     <t>Category</t>
   </si>
@@ -2074,6 +2074,15 @@
   </si>
   <si>
     <t xml:space="preserve">use sliding window + counter dicts to keep track of whether all chars of t are in s. this takes O(n^2) time. We can reduce this time by just checking count of have variables vs need variables(increment have only when complete count for a particular char has been met, say 3 Bs) + check for the character we just added if it is in have/need instead of checking for every single char in t everytime we add a char to substring window. neetcode's video explains easily. </t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>Binary Search </t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix </t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2522,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4619,7 +4628,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4725,6 +4734,9 @@
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="M6" s="12">
+        <v>45516</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4756,17 +4768,41 @@
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="12">
+        <v>45517</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="12">
+        <v>45517</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4814,7 +4850,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -4824,7 +4860,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>81</v>
       </c>
@@ -4834,7 +4870,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -4844,7 +4880,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -4861,8 +4897,11 @@
       <c r="F20" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M20" s="12">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -4870,7 +4909,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -4878,7 +4917,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4888,7 +4927,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -4897,7 +4936,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -4907,7 +4946,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -4915,7 +4954,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -4924,7 +4963,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -4933,7 +4972,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -4943,7 +4982,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -4951,7 +4990,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -4959,7 +4998,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>129</v>
       </c>
@@ -5470,6 +5509,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
+    <hyperlink ref="B10" r:id="rId2" display="https://neetcode.io/problems/binary-search" xr:uid="{E807CEB2-E9F7-4142-BE56-6633DCA44C77}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D67F6B-6E8F-9643-B2A3-0A752248DF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6EF089-36E6-784D-9F24-3E4C24CEB182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="287">
   <si>
     <t>Category</t>
   </si>
@@ -2083,6 +2083,9 @@
   </si>
   <si>
     <t>Search a 2D Matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        #first find row, then binary search in row to find num</t>
   </si>
 </sst>
 </file>
@@ -2521,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -4627,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4792,10 +4795,10 @@
         <v>285</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6EF089-36E6-784D-9F24-3E4C24CEB182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440345FD-74AE-C74E-95D3-5F1B9B0C285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="1180" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="289">
   <si>
     <t>Category</t>
   </si>
@@ -2086,6 +2086,12 @@
   </si>
   <si>
     <t xml:space="preserve">        #first find row, then binary search in row to find num</t>
+  </si>
+  <si>
+    <t>Permutation In String </t>
+  </si>
+  <si>
+    <t>similar idea as 'Minimum Window Substring '</t>
   </si>
 </sst>
 </file>
@@ -4631,7 +4637,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4684,9 +4690,16 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="D2" s="7"/>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
@@ -5514,6 +5527,7 @@
     <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
     <hyperlink ref="B10" r:id="rId2" display="https://neetcode.io/problems/binary-search" xr:uid="{E807CEB2-E9F7-4142-BE56-6633DCA44C77}"/>
     <hyperlink ref="B11" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://neetcode.io/problems/permutation-string" xr:uid="{29884F37-AD83-2346-ACEC-43F6F85A0517}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440345FD-74AE-C74E-95D3-5F1B9B0C285F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C7632-2731-E94E-9B51-DA32588EAB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="293">
   <si>
     <t>Category</t>
   </si>
@@ -2092,6 +2092,18 @@
   </si>
   <si>
     <t>similar idea as 'Minimum Window Substring '</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas </t>
+  </si>
+  <si>
+    <t>range of 1 to max(array) will contain k. find min k using binary search</t>
+  </si>
+  <si>
+    <t>see hint, optimise brute force range search</t>
+  </si>
+  <si>
+    <t>range of 1 to max(array) will contain k</t>
   </si>
 </sst>
 </file>
@@ -4634,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
-  <dimension ref="A1:S215"/>
+  <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,6 +4714,9 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="M2" s="12">
+        <v>45524</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4822,11 +4837,24 @@
     </row>
     <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="M12" s="12">
+        <v>45524</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -4843,9 +4871,6 @@
       <c r="B14" s="2"/>
       <c r="C14" s="9"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4863,22 +4888,23 @@
         <v>55</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="9"/>
@@ -4898,32 +4924,34 @@
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>271</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20" s="12">
-        <v>45516</v>
-      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="12">
+        <v>45516</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -4931,7 +4959,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4939,9 +4967,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -4949,6 +4975,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
@@ -4958,7 +4985,6 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
@@ -4969,15 +4995,16 @@
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
       <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B27" s="2"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -4993,18 +5020,19 @@
         <v>119</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5045,8 +5073,6 @@
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -5055,6 +5081,8 @@
       <c r="B36" s="2"/>
       <c r="C36" s="9"/>
       <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -5062,9 +5090,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -5072,11 +5098,13 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="7"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
@@ -5089,8 +5117,6 @@
       <c r="B40" s="2"/>
       <c r="C40" s="9"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -5099,6 +5125,8 @@
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -5123,8 +5151,6 @@
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -5133,6 +5159,8 @@
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -5165,12 +5193,10 @@
       <c r="B49" s="2"/>
       <c r="C49" s="9"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
@@ -5185,16 +5211,16 @@
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
       <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -5202,9 +5228,9 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -5212,16 +5238,17 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="7"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>229</v>
+      <c r="A55" t="s">
+        <v>214</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="9"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
@@ -5229,9 +5256,8 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
@@ -5240,6 +5266,8 @@
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
@@ -5248,22 +5276,22 @@
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
@@ -5272,8 +5300,6 @@
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
@@ -5282,10 +5308,12 @@
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
       <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
@@ -5296,61 +5324,64 @@
         <v>256</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="6"/>
+      <c r="C64" s="9"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
         <v>13</v>
       </c>
@@ -5395,7 +5426,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="90" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5522,12 +5557,14 @@
     <row r="213" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="214" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
     <hyperlink ref="B10" r:id="rId2" display="https://neetcode.io/problems/binary-search" xr:uid="{E807CEB2-E9F7-4142-BE56-6633DCA44C77}"/>
     <hyperlink ref="B11" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
     <hyperlink ref="B2" r:id="rId4" display="https://neetcode.io/problems/permutation-string" xr:uid="{29884F37-AD83-2346-ACEC-43F6F85A0517}"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C7632-2731-E94E-9B51-DA32588EAB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379122B7-272B-EB43-9A04-F6DF6D1175AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -2097,13 +2097,13 @@
     <t>Koko Eating Bananas </t>
   </si>
   <si>
-    <t>range of 1 to max(array) will contain k. find min k using binary search</t>
-  </si>
-  <si>
     <t>see hint, optimise brute force range search</t>
   </si>
   <si>
     <t>range of 1 to max(array) will contain k</t>
+  </si>
+  <si>
+    <t>range of 1 to max(array) will contain k. find min k using binary search. Note that whenever answer is found, it will move search just before it. So result will always be start(when it is end+1 I guess)</t>
   </si>
 </sst>
 </file>
@@ -4649,7 +4649,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4843,13 +4843,13 @@
         <v>289</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="F12" s="4"/>
       <c r="M12" s="12">

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379122B7-272B-EB43-9A04-F6DF6D1175AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FD95B-FE87-874D-9AC8-11C61F5CD070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="296">
   <si>
     <t>Category</t>
   </si>
@@ -2104,6 +2104,15 @@
   </si>
   <si>
     <t>range of 1 to max(array) will contain k. find min k using binary search. Note that whenever answer is found, it will move search just before it. So result will always be start(when it is end+1 I guess)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of Binary Tree </t>
+  </si>
+  <si>
+    <t>traverse through tree, calculate depth of each subtree(use dp to avoid repeated calculation) and keep updating the maximum diameter. Diameter is the maximum value found</t>
+  </si>
+  <si>
+    <t>no dp</t>
   </si>
 </sst>
 </file>
@@ -4648,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5038,9 +5047,24 @@
       <c r="A31" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="12">
+        <v>45524</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6FD95B-FE87-874D-9AC8-11C61F5CD070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A4AB1-5E1D-1846-81DC-BBC7D3B9B23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="23360" windowHeight="14560" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="298">
   <si>
     <t>Category</t>
   </si>
@@ -2113,6 +2113,12 @@
   </si>
   <si>
     <t>no dp</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree </t>
+  </si>
+  <si>
+    <t>traverse through tree, calculate depth of left and right subtree for each node and check if they differ by more than an absolute value of 1. if so, then not balanced. Btw, as you calc maxDepth, use dp to store them. Avoid recalculating</t>
   </si>
 </sst>
 </file>
@@ -4658,7 +4664,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="L35" activeCellId="1" sqref="M32 L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5070,9 +5076,24 @@
       <c r="A32" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="12">
+        <v>45524</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -5589,6 +5610,7 @@
     <hyperlink ref="B11" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
     <hyperlink ref="B2" r:id="rId4" display="https://neetcode.io/problems/permutation-string" xr:uid="{29884F37-AD83-2346-ACEC-43F6F85A0517}"/>
     <hyperlink ref="B12" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
+    <hyperlink ref="B32" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A4AB1-5E1D-1846-81DC-BBC7D3B9B23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A1AF24-A83D-B147-8F31-2871B39151BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="300">
   <si>
     <t>Category</t>
   </si>
@@ -2119,6 +2119,12 @@
   </si>
   <si>
     <t>traverse through tree, calculate depth of left and right subtree for each node and check if they differ by more than an absolute value of 1. if so, then not balanced. Btw, as you calc maxDepth, use dp to store them. Avoid recalculating</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View </t>
+  </si>
+  <si>
+    <t>level order traversal, print last node of every level</t>
   </si>
 </sst>
 </file>
@@ -4664,7 +4670,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L35" activeCellId="1" sqref="M32 L35"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5095,15 +5101,30 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="12">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -5111,7 +5132,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -5119,7 +5140,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -5129,7 +5150,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -5137,7 +5158,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -5147,7 +5168,7 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -5155,7 +5176,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -5163,7 +5184,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>160</v>
       </c>
@@ -5173,7 +5194,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -5181,7 +5202,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -5189,7 +5210,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -5197,7 +5218,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -5207,7 +5228,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -5215,7 +5236,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -5223,7 +5244,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -5611,6 +5632,7 @@
     <hyperlink ref="B2" r:id="rId4" display="https://neetcode.io/problems/permutation-string" xr:uid="{29884F37-AD83-2346-ACEC-43F6F85A0517}"/>
     <hyperlink ref="B12" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
     <hyperlink ref="B32" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
+    <hyperlink ref="B33" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A1AF24-A83D-B147-8F31-2871B39151BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389D462-28AB-EA4E-B4BC-47F808BE704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="302">
   <si>
     <t>Category</t>
   </si>
@@ -2125,6 +2125,12 @@
   </si>
   <si>
     <t>level order traversal, print last node of every level</t>
+  </si>
+  <si>
+    <t>Count Good Nodes In Binary Tree </t>
+  </si>
+  <si>
+    <t>simple traversal keeping track of parent value</t>
   </si>
 </sst>
 </file>
@@ -4670,7 +4676,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5128,9 +5134,24 @@
       <c r="A34" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="12">
+        <v>45527</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -5633,6 +5654,7 @@
     <hyperlink ref="B12" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
     <hyperlink ref="B32" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
     <hyperlink ref="B33" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
+    <hyperlink ref="B34" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389D462-28AB-EA4E-B4BC-47F808BE704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF2F41-782B-784E-9259-6CED2D9129EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="304">
   <si>
     <t>Category</t>
   </si>
@@ -2131,6 +2131,12 @@
   </si>
   <si>
     <t>simple traversal keeping track of parent value</t>
+  </si>
+  <si>
+    <t>Copy List With Random Pointer </t>
+  </si>
+  <si>
+    <t>traverse old linkedlist to create mapping of each node and its copies. Traverse again to replicate copies</t>
   </si>
 </sst>
 </file>
@@ -4675,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4887,9 +4893,22 @@
       <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="M13" s="12">
+        <v>45527</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -5655,6 +5674,7 @@
     <hyperlink ref="B32" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
     <hyperlink ref="B33" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
     <hyperlink ref="B34" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF2F41-782B-784E-9259-6CED2D9129EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCE080-A3C3-F54D-90D6-E422764F5C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="307">
   <si>
     <t>Category</t>
   </si>
@@ -2137,6 +2137,27 @@
   </si>
   <si>
     <t>traverse old linkedlist to create mapping of each node and its copies. Traverse again to replicate copies</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs </t>
+  </si>
+  <si>
+    <t>climbing stairs problem+two robber problem</t>
+  </si>
+  <si>
+    <t>Imagine you’re climbing stairs where each step has a different price. To minimize the total cost, you can either take one step or two steps at a time. We calculate the cheapest way to reach the top by considering the cost of each step and choosing the least expensive option for each move.
+function minCostClimbingStairs(cost):
+    if length of cost is 0:
+        return 0
+    if length of cost is 1:
+        return cost[0]
+    initialize dp0 to cost[0]
+    initialize dp1 to cost[1]
+    for i from 2 to length of cost - 1:
+        cur = cost[i] + min(dp0, dp1)
+        update dp0 to dp1
+        update dp1 to cur
+    return min(dp0, dp1)</t>
   </si>
 </sst>
 </file>
@@ -4681,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5215,14 +5236,27 @@
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="7"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="12">
+        <v>45528</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -5675,6 +5709,7 @@
     <hyperlink ref="B33" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
     <hyperlink ref="B34" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
+    <hyperlink ref="B40" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCE080-A3C3-F54D-90D6-E422764F5C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CB19C-B5B0-0F4A-A48C-EBFC4ABEB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="-1140" windowWidth="32000" windowHeight="17520" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="310">
   <si>
     <t>Category</t>
   </si>
@@ -2158,6 +2158,15 @@
         update dp0 to dp1
         update dp1 to cur
     return min(dp0, dp1)</t>
+  </si>
+  <si>
+    <t>iterate through the linked lists, adding corresponding digits and store in one variable and managing carry-over(storing in another variable. It constructs a new linked list for the result while handling cases where one list is longer or when a carry remains after processing both lists. Note: read problem carefully, it is easier than you think.</t>
+  </si>
+  <si>
+    <t>Add Two Numbers </t>
+  </si>
+  <si>
+    <t>finding each number and store. Find sum. And then creating linkedlist.</t>
   </si>
 </sst>
 </file>
@@ -4702,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4935,9 +4944,22 @@
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="M14" s="12">
+        <v>45534</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -5710,6 +5732,7 @@
     <hyperlink ref="B34" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
     <hyperlink ref="B40" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
+    <hyperlink ref="B14" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2CB19C-B5B0-0F4A-A48C-EBFC4ABEB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B3539-35B5-4146-A5ED-771EC2566251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
     <sheet name="Neetcode75" sheetId="2" r:id="rId2"/>
     <sheet name="ImportantAlgorithms" sheetId="3" r:id="rId3"/>
+    <sheet name="Tips" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="315">
   <si>
     <t>Category</t>
   </si>
@@ -2168,12 +2169,42 @@
   <si>
     <t>finding each number and store. Find sum. And then creating linkedlist.</t>
   </si>
+  <si>
+    <t>Find The Duplicate Number </t>
+  </si>
+  <si>
+    <t>9 Approaches:  Brute Force(allowed since constraint in N is under 10000), Count, Hash, In-place Marked, Sorting, Index Sort, Binary Search, Bit Manipulation, Fast Slow Pointers.</t>
+  </si>
+  <si>
+    <t>Tips</t>
+  </si>
+  <si>
+    <t>Always see constraints. Sometimes brute force is allowed. Especially if n is small</t>
+  </si>
+  <si>
+    <t>use fast slow pointers for linkedlist
+class Solution:
+    def findDuplicate(self, nums: List[int]) -&gt; int:
+        #treat array as linkedlist. each nums[index] contains value right? we consider that value as next index that we need to travel to at that point 
+        slow = nums[0]
+        fast = nums[0]
+        while True:
+            slow = nums[slow]
+            fast = nums[nums[fast]]
+            if slow == fast:
+                break
+        slow2 = nums[0]
+        while slow != slow2:
+            slow = nums[slow]
+            slow2 = nums[slow2]
+        return slow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2216,6 +2247,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2244,7 +2282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2268,6 +2306,7 @@
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4711,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4965,12 +5004,21 @@
       <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>314</v>
+      </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="4"/>
       <c r="J15" s="11"/>
+      <c r="M15" s="12">
+        <v>45535</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -5733,6 +5781,7 @@
     <hyperlink ref="B13" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
     <hyperlink ref="B40" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
     <hyperlink ref="B14" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
+    <hyperlink ref="B15" r:id="rId12" display="https://neetcode.io/problems/find-duplicate-integer" xr:uid="{E62E2A58-37D7-3643-917D-7FFF6325DFDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5786,4 +5835,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6768C6-2E41-8842-8FDF-0F71E80E0B5B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44B3539-35B5-4146-A5ED-771EC2566251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990845C4-FFAD-164B-A502-6F140CEDFE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -2173,9 +2173,6 @@
     <t>Find The Duplicate Number </t>
   </si>
   <si>
-    <t>9 Approaches:  Brute Force(allowed since constraint in N is under 10000), Count, Hash, In-place Marked, Sorting, Index Sort, Binary Search, Bit Manipulation, Fast Slow Pointers.</t>
-  </si>
-  <si>
     <t>Tips</t>
   </si>
   <si>
@@ -2198,6 +2195,10 @@
             slow = nums[slow]
             slow2 = nums[slow2]
         return slow</t>
+  </si>
+  <si>
+    <t>9 Approaches:  Brute Force(n^2 time but O(1) space if we use 2 for loops), Count, Hash, In-place Marked, Sorting, Index Sort, Binary Search, Bit Manipulation, Fast Slow Pointers.
+https://leetcode.com/problems/find-the-duplicate-number/solutions/1892921/9-approaches-count-hash-in-place-marked-sort-binary-search-bit-mask-fast-slow-pointers/</t>
   </si>
 </sst>
 </file>
@@ -4751,7 +4752,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,10 +5009,10 @@
         <v>310</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="4"/>
@@ -5849,12 +5850,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990845C4-FFAD-164B-A502-6F140CEDFE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D856BE-E784-EF48-B1E1-CCFD118FEB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="318">
   <si>
     <t>Category</t>
   </si>
@@ -2199,6 +2199,46 @@
   <si>
     <t>9 Approaches:  Brute Force(n^2 time but O(1) space if we use 2 for loops), Count, Hash, In-place Marked, Sorting, Index Sort, Binary Search, Bit Manipulation, Fast Slow Pointers.
 https://leetcode.com/problems/find-the-duplicate-number/solutions/1892921/9-approaches-count-hash-in-place-marked-sort-binary-search-bit-mask-fast-slow-pointers/</t>
+  </si>
+  <si>
+    <t>Multiple node BFS simultaneously. do bfs using queue, just like regular one
+keep track of fresh oranges count, so if there are any remaining after rotting process, we can return -1</t>
+  </si>
+  <si>
+    <t>Rotting Oranges </t>
+  </si>
+  <si>
+    <t>Code:
+class Solution:
+    def orangesRotting(self, grid: List[List[int]]) -&gt; int:
+        q = collections.deque()
+        fresh = 0
+        time = 0
+        for r in range(len(grid)):
+            for c in range(len(grid[0])):
+                if grid[r][c] == 1:
+                    fresh += 1
+                if grid[r][c] == 2:
+                    q.append((r, c))
+        directions = [[0, 1], [0, -1], [1, 0], [-1, 0]]
+        while fresh &gt; 0 and q:
+            length = len(q)
+            for i in range(length):
+                r, c = q.popleft()
+                for dr, dc in directions:
+                    row, col = r + dr, c + dc
+                    # if in bounds and nonrotten, make rotten
+                    # and add to q
+                    if (
+                        row in range(len(grid))
+                        and col in range(len(grid[0]))
+                        and grid[row][col] == 1
+                    ):
+                        grid[row][col] = 2
+                        q.append((row, col))
+                        fresh -= 1
+            time += 1
+        return time if fresh == 0 else -1</t>
   </si>
 </sst>
 </file>
@@ -4751,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5397,7 +5437,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -5405,7 +5445,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -5415,7 +5455,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -5425,7 +5465,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -5433,7 +5473,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -5443,7 +5483,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -5453,7 +5493,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -5461,7 +5501,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>229</v>
       </c>
@@ -5470,7 +5510,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>229</v>
       </c>
@@ -5480,7 +5520,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>229</v>
       </c>
@@ -5488,7 +5528,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>229</v>
       </c>
@@ -5498,21 +5538,36 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>227</v>
       </c>
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" s="12">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>244</v>
       </c>
@@ -5522,7 +5577,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>244</v>
       </c>
@@ -5530,7 +5585,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>256</v>
       </c>
@@ -5783,6 +5838,7 @@
     <hyperlink ref="B40" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
     <hyperlink ref="B14" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
     <hyperlink ref="B15" r:id="rId12" display="https://neetcode.io/problems/find-duplicate-integer" xr:uid="{E62E2A58-37D7-3643-917D-7FFF6325DFDD}"/>
+    <hyperlink ref="B61" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D856BE-E784-EF48-B1E1-CCFD118FEB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA3848-17F6-864B-8BF3-264BC3C8252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="322">
   <si>
     <t>Category</t>
   </si>
@@ -2239,6 +2239,22 @@
                         fresh -= 1
             time += 1
         return time if fresh == 0 else -1</t>
+  </si>
+  <si>
+    <t>To find the maximum island area, iterate through each cell in the grid. Use depth-first search (DFS) to explore and calculate the area of each island starting from unvisited land cells. Track and return the largest area found.</t>
+  </si>
+  <si>
+    <t>Max Area of Island </t>
+  </si>
+  <si>
+    <t>Surrounded Regions </t>
+  </si>
+  <si>
+    <t>To capture surrounded regions of 'O's in a matrix:
+Mark Border 'O's: Use flood fill to mark all 'O's connected to the border as 'S' (safe).
+Replace Remaining 'O's: Convert all other 'O's (not marked as 'S') to 'X' (surrounded).
+Restore Safe 'O's: Change 'S' back to 'O' to keep safe regions unchanged.
+So, the Idea is to basically just mark the Os connected to border as nodes that cannot be converted</t>
   </si>
 </sst>
 </file>
@@ -4791,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5571,19 +5587,47 @@
       <c r="A62" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="B62" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" t="s">
+        <v>318</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" s="12">
+        <v>45535</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="7"/>
+      <c r="B63" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="12">
+        <v>45535</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
@@ -5839,6 +5883,8 @@
     <hyperlink ref="B14" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
     <hyperlink ref="B15" r:id="rId12" display="https://neetcode.io/problems/find-duplicate-integer" xr:uid="{E62E2A58-37D7-3643-917D-7FFF6325DFDD}"/>
     <hyperlink ref="B61" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
+    <hyperlink ref="B62" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
+    <hyperlink ref="B63" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA3848-17F6-864B-8BF3-264BC3C8252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B93AB11-1575-4041-885F-F5C47EA83D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="323">
   <si>
     <t>Category</t>
   </si>
@@ -2255,6 +2255,9 @@
 Replace Remaining 'O's: Convert all other 'O's (not marked as 'S') to 'X' (surrounded).
 Restore Safe 'O's: Change 'S' back to 'O' to keep safe regions unchanged.
 So, the Idea is to basically just mark the Os connected to border as nodes that cannot be converted</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -4807,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5012,7 +5015,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="M12" s="12">
-        <v>45524</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5657,6 +5660,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="6" t="s">
+        <v>322</v>
+      </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B93AB11-1575-4041-885F-F5C47EA83D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C208BE3-E183-BB45-85E3-F8AECAED8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="325">
   <si>
     <t>Category</t>
   </si>
@@ -2258,6 +2258,12 @@
   </si>
   <si>
     <t>w</t>
+  </si>
+  <si>
+    <t>Reverse Nodes In K Group </t>
+  </si>
+  <si>
+    <t>have a dummy pointer to handle edge cases .find kth node, then reverse for every group and connect it to kth node's next node. And previous groups last node.</t>
   </si>
 </sst>
 </file>
@@ -4811,7 +4817,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5084,12 +5090,21 @@
       <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="4"/>
       <c r="J16" s="11"/>
+      <c r="M16" s="12">
+        <v>45538</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -5891,6 +5906,7 @@
     <hyperlink ref="B61" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
     <hyperlink ref="B62" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
     <hyperlink ref="B63" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://neetcode.io/problems/reverse-nodes-in-k-group" xr:uid="{7923683B-D2D1-074B-8773-9FF02C2283E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C208BE3-E183-BB45-85E3-F8AECAED8635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A0A19-F43D-0E4E-BEE2-C6855BD90A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="327">
   <si>
     <t>Category</t>
   </si>
@@ -2264,6 +2264,12 @@
   </si>
   <si>
     <t>have a dummy pointer to handle edge cases .find kth node, then reverse for every group and connect it to kth node's next node. And previous groups last node.</t>
+  </si>
+  <si>
+    <t>LRU Cache </t>
+  </si>
+  <si>
+    <t>have a doubly linkedlist with lru pointer at one end and most recently used pointer at other end. Use a class structure for nodes too</t>
   </si>
 </sst>
 </file>
@@ -4817,7 +4823,7 @@
   <dimension ref="A1:S216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5110,9 +5116,19 @@
       <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="M17" s="12">
+        <v>45543</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -5907,6 +5923,7 @@
     <hyperlink ref="B62" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
     <hyperlink ref="B63" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
     <hyperlink ref="B16" r:id="rId16" display="https://neetcode.io/problems/reverse-nodes-in-k-group" xr:uid="{7923683B-D2D1-074B-8773-9FF02C2283E6}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://neetcode.io/problems/lru-cache" xr:uid="{E7F48BC9-E8B5-D448-9EA4-803274B5F533}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A0A19-F43D-0E4E-BEE2-C6855BD90A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA2AE4-59DE-7946-B553-4178D06E6440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="26240" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="331">
   <si>
     <t>Category</t>
   </si>
@@ -2270,6 +2270,89 @@
   </si>
   <si>
     <t>have a doubly linkedlist with lru pointer at one end and most recently used pointer at other end. Use a class structure for nodes too</t>
+  </si>
+  <si>
+    <t>Subsets </t>
+  </si>
+  <si>
+    <t>not bracktracking but better solution . Brute force:(simple)
+from typing import List
+class Solution:
+    def subsets(self, nums: List[int]) -&gt; List[List[int]]:
+        result = [[]]  # Start with the empty subset
+        for num in nums:
+            # Add the current number to all existing subsets
+            result += [curr + [num] for curr in result]
+        return result
+Time complexity: O(n.2^n)
+Space Complexity: O(n.2^n)</t>
+  </si>
+  <si>
+    <t>The code you've provided is a recursive solution to generate all subsets of a given list of integers. This uses the **Depth-First Search (DFS)** approach to explore all possible subsets. Here's a breakdown of the code and an explanation of how it works:
+### Code Breakdown:
+```python
+from typing import List
+class Solution:
+    def subsets(self, nums: List[int]) -&gt; List[List[int]]:
+        res = []         # To store all the subsets (the result).
+        subset = []      # To store the current subset being constructed.
+        def dfs(i):      # Define a recursive function 'dfs' that takes 'i' as an index.
+            if i &gt;= len(nums):            # Base case: if index 'i' is out of bounds,
+                res.append(subset.copy()) # Append a copy of the current subset to 'res'.
+                return                    # Exit the recursive call.
+            # Decision 1: Include nums[i] in the subset.
+            subset.append(nums[i])  # Add nums[i] to the current subset.
+            dfs(i + 1)              # Recur to process the next element.
+            # Backtrack: remove the last element (nums[i]) to explore other options.
+            subset.pop()            # Remove nums[i] from the current subset.
+            # Decision 2: Exclude nums[i] from the subset.
+            dfs(i + 1)              # Recur to process the next element without nums[i].
+        dfs(0)       # Start the recursion from index 0.
+        return res   # Return the list of all subsets.
+```
+### Step-by-Step Explanation:
+1. **Initialization:**
+   - `res = []`: This is an empty list that will eventually hold all the subsets.
+   - `subset = []`: This is a temporary list used to build each subset as the recursion proceeds.
+2. **Recursive Function `dfs(i)`:**
+   - `i` is the current index in the list `nums` that you're processing.
+   - The recursive function will make two decisions for each element in `nums`:
+     - Include the current element in the subset.
+     - Exclude the current element from the subset.
+3. **Base Case:**
+   - `if i &gt;= len(nums)`: This checks whether the index `i` has reached or exceeded the length of the list `nums`. If true, it means that we have processed all elements.
+   - `res.append(subset.copy())`: At this point, the current subset (which may or may not include the last element) is added to `res`. The `.copy()` is important because it ensures that changes made to `subset` in future recursive calls won't affect the previously added subsets.
+   - `return`: After adding the current subset to `res`, the function returns, stopping further recursive exploration for that branch.
+4. **Recursive Decisions:**
+   - `subset.append(nums[i])`: First, we decide to include `nums[i]` in the current subset.
+   - `dfs(i + 1)`: After including `nums[i]`, we recursively call `dfs` to process the next element (i.e., move to `i + 1`).
+   - `subset.pop()`: After processing the current subset that includes `nums[i]`, we "backtrack" by removing `nums[i]` from `subset`. This allows us to explore the option where `nums[i]` is not included.
+   - `dfs(i + 1)`: We make a second recursive call, this time excluding `nums[i]` and moving to the next index `i + 1`.
+5. **Initial Call and Result:**
+   - The recursion starts with `dfs(0)` (i.e., processing the first element of `nums`).
+   - When all recursive calls finish, the result list `res` will contain all possible subsets of `nums`.
+### Example Walkthrough:
+Let's go through a quick example. Assume `nums = [1, 2]`:
+- Start with `dfs(0)`:
+  1. Include `1` → `subset = [1]` → call `dfs(1)`.
+     - Include `2` → `subset = [1, 2]` → call `dfs(2)`.
+       - `i &gt;= len(nums)` → add `[1, 2]` to `res`.
+     - Backtrack (remove `2`) → `subset = [1]` → call `dfs(2)`.
+       - `i &gt;= len(nums)` → add `[1]` to `res`.
+  2. Backtrack (remove `1`) → `subset = []` → call `dfs(1)`.
+     - Include `2` → `subset = [2]` → call `dfs(2)`.
+       - `i &gt;= len(nums)` → add `[2]` to `res`.
+     - Backtrack (remove `2`) → `subset = []` → call `dfs(2)`.
+       - `i &gt;= len(nums)` → add `[]` (empty subset) to `res`.
+At the end, `res` will contain all subsets: `[[1, 2], [1], [2], []]`.
+### Time and Space Complexity:
+- **Time Complexity:** \( O(2^n) \)
+  - Since every element can either be included or excluded, we generate \( 2^n \) subsets.
+- **Space Complexity:** \( O(n \cdot 2^n) \)
+  - The recursion depth can go up to `n` (the length of `nums`), and we need to store \( 2^n \) subsets, each of which can have up to `n` elements. Thus, space complexity is \( O(n \cdot 2^n) \).</t>
+  </si>
+  <si>
+    <t>generate subsets including and excluding every element</t>
   </si>
 </sst>
 </file>
@@ -4820,10 +4903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:S224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5144,11 +5227,22 @@
       <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="M19" s="12">
+        <v>45545</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5162,44 +5256,37 @@
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>271</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="12">
-        <v>45516</v>
-      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="9"/>
       <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="9"/>
@@ -5209,16 +5296,17 @@
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="9"/>
@@ -5228,135 +5316,93 @@
     </row>
     <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="12">
+        <v>45516</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="9"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="12">
-        <v>45524</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32" s="12">
-        <v>45524</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="12">
-        <v>45527</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="9"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="12">
-        <v>45527</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
@@ -5364,29 +5410,29 @@
     </row>
     <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
       <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
@@ -5394,52 +5440,97 @@
       <c r="A39" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="7"/>
-      <c r="M39" s="12"/>
+      <c r="B39" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="12">
+        <v>45524</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M40" s="12">
-        <v>45528</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="12">
+        <v>45527</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="7"/>
+        <v>129</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="12">
+        <v>45527</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="9"/>
@@ -5447,85 +5538,98 @@
     </row>
     <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
       <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
       <c r="D47" s="7"/>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" s="12">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="9"/>
       <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
@@ -5533,54 +5637,51 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>229</v>
+    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>160</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
-        <v>229</v>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>160</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>229</v>
+    </row>
+    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>160</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>229</v>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>206</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="9"/>
@@ -5588,219 +5689,284 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M61" s="12">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D62" t="s">
-        <v>318</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M62" s="12">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M63" s="12">
-        <v>45535</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="9"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" s="12">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" s="12">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" s="12">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="6" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D81" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G84" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G86" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5905,6 +6071,14 @@
     <row r="214" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="215" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="216" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
@@ -5912,18 +6086,19 @@
     <hyperlink ref="B11" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
     <hyperlink ref="B2" r:id="rId4" display="https://neetcode.io/problems/permutation-string" xr:uid="{29884F37-AD83-2346-ACEC-43F6F85A0517}"/>
     <hyperlink ref="B12" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
-    <hyperlink ref="B32" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
-    <hyperlink ref="B33" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
-    <hyperlink ref="B34" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
+    <hyperlink ref="B40" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
+    <hyperlink ref="B41" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
+    <hyperlink ref="B42" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
     <hyperlink ref="B13" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
-    <hyperlink ref="B40" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
+    <hyperlink ref="B48" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
     <hyperlink ref="B14" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
     <hyperlink ref="B15" r:id="rId12" display="https://neetcode.io/problems/find-duplicate-integer" xr:uid="{E62E2A58-37D7-3643-917D-7FFF6325DFDD}"/>
-    <hyperlink ref="B61" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
-    <hyperlink ref="B62" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
-    <hyperlink ref="B63" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
+    <hyperlink ref="B69" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
+    <hyperlink ref="B70" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
+    <hyperlink ref="B71" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
     <hyperlink ref="B16" r:id="rId16" display="https://neetcode.io/problems/reverse-nodes-in-k-group" xr:uid="{7923683B-D2D1-074B-8773-9FF02C2283E6}"/>
     <hyperlink ref="B17" r:id="rId17" display="https://neetcode.io/problems/lru-cache" xr:uid="{E7F48BC9-E8B5-D448-9EA4-803274B5F533}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/subsets" xr:uid="{08A495C4-8CB8-544D-91DE-7F826D567052}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA2AE4-59DE-7946-B553-4178D06E6440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F26E3A-1461-C84D-92FD-DCAE939F0F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26240" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="334">
   <si>
     <t>Category</t>
   </si>
@@ -2353,6 +2353,32 @@
   </si>
   <si>
     <t>generate subsets including and excluding every element</t>
+  </si>
+  <si>
+    <t>find permutations for minimum possible subset and then add one element at every possible index, add those permutations, carry on with this till all permutations of length n are reached</t>
+  </si>
+  <si>
+    <t>Find Permutations
+TC O(n!)
+SC O(n. n!)
+Solution:
+class Solution:
+    def permute(self, nums: List[int]) -&gt; List[List[int]]:
+        res = []
+        # base case
+        if len(nums) == 1:
+            return [nums[:]]  # nums[:] is a deep copy
+        for i in range(len(nums)):
+            n = nums.pop(0)
+            perms = self.permute(nums)
+            for perm in perms:
+                perm.append(n)
+            res.extend(perms)
+            nums.append(n)
+        return res</t>
+  </si>
+  <si>
+    <t>Permutations </t>
   </si>
 </sst>
 </file>
@@ -4905,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,11 +5274,20 @@
       <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>332</v>
+      </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="M20" s="12">
+        <v>45546</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -6099,6 +6134,7 @@
     <hyperlink ref="B16" r:id="rId16" display="https://neetcode.io/problems/reverse-nodes-in-k-group" xr:uid="{7923683B-D2D1-074B-8773-9FF02C2283E6}"/>
     <hyperlink ref="B17" r:id="rId17" display="https://neetcode.io/problems/lru-cache" xr:uid="{E7F48BC9-E8B5-D448-9EA4-803274B5F533}"/>
     <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/subsets" xr:uid="{08A495C4-8CB8-544D-91DE-7F826D567052}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://neetcode.io/problems/permutations" xr:uid="{4EF07609-D1D6-FC40-B087-6C94F85773CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F26E3A-1461-C84D-92FD-DCAE939F0F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21C8E2B-330B-C043-9B7A-FC0C71D73ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26240" yWindow="0" windowWidth="19200" windowHeight="10800" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="338">
   <si>
     <t>Category</t>
   </si>
@@ -2379,6 +2379,21 @@
   </si>
   <si>
     <t>Permutations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop through different sliding window sizes and traverse the array checking for each
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read neetcode code where we </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 solutions:
+1)read neetcode solution where he tracks maximum possible value and minimum possible value
+2)See notion for explanation. prefix and suffix products. That is, find products from ends of the array so basically we take both directions to handle negative numbers and also to essentially move both pointers of the sliding window from either end. </t>
+  </si>
+  <si>
+    <t>Last Reviewed Date</t>
   </si>
 </sst>
 </file>
@@ -2826,7 +2841,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2911,7 +2926,7 @@
         <v>45510</v>
       </c>
       <c r="N2" s="12">
-        <v>45511</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3115,7 +3130,7 @@
         <v>45510</v>
       </c>
       <c r="N8" s="12">
-        <v>45516</v>
+        <v>45568</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4306,7 +4321,7 @@
         <v>13</v>
       </c>
       <c r="M53" s="12">
-        <v>45510</v>
+        <v>45568</v>
       </c>
       <c r="N53" s="12"/>
     </row>
@@ -4931,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4977,7 +4992,7 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>337</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -5049,7 +5064,7 @@
         <v>13</v>
       </c>
       <c r="M6" s="12">
-        <v>45516</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5628,17 +5643,33 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="12">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>160</v>
       </c>
@@ -5646,7 +5677,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -5654,7 +5685,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -5662,7 +5693,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -5672,7 +5703,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -5680,7 +5711,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -5688,7 +5719,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -5696,7 +5727,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -5704,7 +5735,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -5714,7 +5745,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>206</v>
       </c>
@@ -5724,7 +5755,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>206</v>
       </c>
@@ -5732,7 +5763,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>214</v>
       </c>
@@ -5742,7 +5773,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>214</v>
       </c>
@@ -5752,7 +5783,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -5760,7 +5791,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>229</v>
       </c>
@@ -6135,6 +6166,7 @@
     <hyperlink ref="B17" r:id="rId17" display="https://neetcode.io/problems/lru-cache" xr:uid="{E7F48BC9-E8B5-D448-9EA4-803274B5F533}"/>
     <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/subsets" xr:uid="{08A495C4-8CB8-544D-91DE-7F826D567052}"/>
     <hyperlink ref="B20" r:id="rId19" display="https://neetcode.io/problems/permutations" xr:uid="{4EF07609-D1D6-FC40-B087-6C94F85773CA}"/>
+    <hyperlink ref="B49" r:id="rId20" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{4AB51B69-3378-E646-96DE-EE9099589DBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21C8E2B-330B-C043-9B7A-FC0C71D73ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95B7D9-E65F-1341-8AB3-C2383BE6329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -2841,7 +2841,7 @@
   <dimension ref="A1:S215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3060,7 +3060,7 @@
         <v>45510</v>
       </c>
       <c r="N6" s="12">
-        <v>45516</v>
+        <v>45580</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,9 @@
       <c r="M12" s="12">
         <v>45510</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="12">
+        <v>45597</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3321,7 +3323,9 @@
       <c r="M15" s="12">
         <v>45510</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="12">
+        <v>45597</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3504,7 +3508,9 @@
       <c r="M22" s="12">
         <v>45510</v>
       </c>
-      <c r="N22" s="12"/>
+      <c r="N22" s="12">
+        <v>45580</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4947,7 +4953,7 @@
   <dimension ref="A1:S224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5236,7 +5242,7 @@
         <v>45538</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>45543</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -5264,7 +5270,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -5304,7 +5310,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -5314,7 +5320,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -5324,7 +5330,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -5334,7 +5340,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -5344,7 +5350,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -5354,7 +5360,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -5364,7 +5370,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -5374,7 +5380,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -5384,7 +5390,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -5404,8 +5410,11 @@
       <c r="M29" s="12">
         <v>45516</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N29" s="12">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -5413,7 +5422,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -5421,7 +5430,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>91</v>
       </c>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95B7D9-E65F-1341-8AB3-C2383BE6329D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC205D6-BE31-9346-BD43-4D7C9D386EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -929,9 +929,6 @@
 ### Big Idea
 The function finds cells with zeros and sets the entire row and column of those cells to zero, modifying the matrix in place.
 Alternatively, a worse solution, of space O(mn) is possible where we have a copy of the matrix and during traversal of actualy matrix we update the copy of the matrix every time we encounter a zero. we don't prefer this because of m+n previous soln</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> use some space to mark the rows and columns that need to be made zero. Then iterate to mark it.</t>
   </si>
   <si>
     <t>First read the brute force solution. Instead of brute force solution, we'll mark it in place in the first row, first column and one extra space for the overlap. Since we see these cells first, they can be used for marking and modified without affecting entire matrix. see timestamp 11:10 onwards in video https://www.youtube.com/watch?v=T41rL0L3Pnw&amp;ab_channel=NeetCode (also timestamp 14:40, which says for colset use first col, for rowset use first row, but for rowset 0th position since it is used by column, use the boolean single space/variable we declared, to avoid overlap
@@ -2394,6 +2391,9 @@
   </si>
   <si>
     <t>Last Reviewed Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use some space to mark the rows and columns that need to be made zero. Then iterate to mark it. O(1) solution involves placing these markers inside the matrix. Also make sure to traverse top to bottom and left to right so we don't confuse actual zero with cell that we mark zero.</t>
   </si>
 </sst>
 </file>
@@ -2840,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2889,7 +2889,7 @@
         <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -2934,7 +2934,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2972,7 +2972,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>26</v>
@@ -3007,7 +3007,7 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -3288,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M14" s="12">
         <v>45510</v>
@@ -3318,7 +3318,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M15" s="12">
         <v>45510</v>
@@ -3645,7 +3645,9 @@
       <c r="M27" s="12">
         <v>45510</v>
       </c>
-      <c r="N27" s="12"/>
+      <c r="N27" s="12">
+        <v>45597</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -3670,7 +3672,7 @@
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M28" s="12">
         <v>45510</v>
@@ -3685,10 +3687,10 @@
         <v>124</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>125</v>
@@ -3702,20 +3704,22 @@
       <c r="M29" s="12">
         <v>45510</v>
       </c>
-      <c r="N29" s="12"/>
+      <c r="N29" s="12">
+        <v>45597</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="D30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -3730,16 +3734,16 @@
     </row>
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="F31" t="s">
         <v>13</v>
@@ -3754,16 +3758,16 @@
     </row>
     <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="F32" t="s">
         <v>13</v>
@@ -3778,16 +3782,16 @@
     </row>
     <row r="33" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -3802,25 +3806,25 @@
     </row>
     <row r="34" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
         <v>143</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>144</v>
       </c>
       <c r="M34" s="12">
         <v>45510</v>
@@ -3829,19 +3833,19 @@
     </row>
     <row r="35" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -3856,16 +3860,16 @@
     </row>
     <row r="36" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -3880,19 +3884,19 @@
     </row>
     <row r="37" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -3907,16 +3911,16 @@
     </row>
     <row r="38" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -3931,19 +3935,19 @@
     </row>
     <row r="39" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -3958,28 +3962,28 @@
     </row>
     <row r="40" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
         <v>166</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" t="s">
-        <v>167</v>
       </c>
       <c r="M40" s="12">
         <v>45510</v>
@@ -3988,16 +3992,16 @@
     </row>
     <row r="41" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -4012,19 +4016,19 @@
     </row>
     <row r="42" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -4039,19 +4043,19 @@
     </row>
     <row r="43" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -4066,19 +4070,19 @@
     </row>
     <row r="44" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -4093,16 +4097,16 @@
     </row>
     <row r="45" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="D45" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -4117,19 +4121,19 @@
     </row>
     <row r="46" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="E46" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -4144,28 +4148,28 @@
     </row>
     <row r="47" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
         <v>192</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" t="s">
-        <v>193</v>
       </c>
       <c r="M47" s="12">
         <v>45510</v>
@@ -4174,19 +4178,19 @@
     </row>
     <row r="48" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -4201,19 +4205,19 @@
     </row>
     <row r="49" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -4228,19 +4232,19 @@
     </row>
     <row r="50" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -4255,16 +4259,16 @@
     </row>
     <row r="51" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -4279,19 +4283,19 @@
     </row>
     <row r="52" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="E52" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="F52" t="s">
         <v>13</v>
@@ -4306,19 +4310,19 @@
     </row>
     <row r="53" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>221</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -4333,16 +4337,16 @@
     </row>
     <row r="54" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="F54" t="s">
         <v>13</v>
@@ -4357,19 +4361,19 @@
     </row>
     <row r="55" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C55" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="F55" t="s">
         <v>13</v>
@@ -4384,19 +4388,19 @@
     </row>
     <row r="56" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -4411,16 +4415,16 @@
     </row>
     <row r="57" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
@@ -4435,19 +4439,19 @@
     </row>
     <row r="58" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C58" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -4462,13 +4466,13 @@
     </row>
     <row r="59" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" t="s">
         <v>227</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" t="s">
-        <v>228</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -4483,16 +4487,16 @@
     </row>
     <row r="60" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4507,19 +4511,19 @@
     </row>
     <row r="61" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D61" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4534,19 +4538,19 @@
     </row>
     <row r="62" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -4561,19 +4565,19 @@
     </row>
     <row r="63" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -4588,19 +4592,19 @@
     </row>
     <row r="64" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -4952,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4998,7 +5002,7 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S1" s="10"/>
     </row>
@@ -5007,10 +5011,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="4" t="s">
@@ -5031,7 +5035,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="K3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5055,16 +5059,16 @@
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
         <v>266</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -5104,13 +5108,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -5124,13 +5128,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>286</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -5144,16 +5148,16 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="F12" s="4"/>
       <c r="M12" s="12">
@@ -5165,16 +5169,16 @@
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F13" s="4"/>
       <c r="M13" s="12">
@@ -5186,16 +5190,16 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="F14" s="4"/>
       <c r="M14" s="12">
@@ -5207,13 +5211,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="4"/>
@@ -5227,13 +5231,13 @@
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>324</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="4"/>
@@ -5247,13 +5251,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="4"/>
       <c r="M17" s="12">
@@ -5275,16 +5279,16 @@
         <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="F19" s="4"/>
       <c r="M19" s="12">
@@ -5296,13 +5300,13 @@
         <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
@@ -5395,13 +5399,13 @@
         <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
@@ -5497,19 +5501,19 @@
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>13</v>
@@ -5520,19 +5524,19 @@
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>297</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>13</v>
@@ -5543,19 +5547,19 @@
     </row>
     <row r="41" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
@@ -5566,19 +5570,19 @@
     </row>
     <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>301</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -5589,7 +5593,7 @@
     </row>
     <row r="43" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="9"/>
@@ -5597,7 +5601,7 @@
     </row>
     <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
@@ -5607,7 +5611,7 @@
     </row>
     <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
@@ -5615,7 +5619,7 @@
     </row>
     <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
@@ -5625,7 +5629,7 @@
     </row>
     <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
@@ -5634,16 +5638,16 @@
     </row>
     <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
@@ -5654,19 +5658,19 @@
     </row>
     <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
@@ -5680,7 +5684,7 @@
     </row>
     <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="9"/>
@@ -5688,7 +5692,7 @@
     </row>
     <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="9"/>
@@ -5696,7 +5700,7 @@
     </row>
     <row r="52" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="9"/>
@@ -5704,7 +5708,7 @@
     </row>
     <row r="53" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
@@ -5714,7 +5718,7 @@
     </row>
     <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
@@ -5722,7 +5726,7 @@
     </row>
     <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="9"/>
@@ -5730,7 +5734,7 @@
     </row>
     <row r="56" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="9"/>
@@ -5738,7 +5742,7 @@
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="9"/>
@@ -5746,7 +5750,7 @@
     </row>
     <row r="58" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
@@ -5756,7 +5760,7 @@
     </row>
     <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="9"/>
@@ -5766,7 +5770,7 @@
     </row>
     <row r="60" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="9"/>
@@ -5774,7 +5778,7 @@
     </row>
     <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
@@ -5784,7 +5788,7 @@
     </row>
     <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
@@ -5794,7 +5798,7 @@
     </row>
     <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
@@ -5802,7 +5806,7 @@
     </row>
     <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="9"/>
@@ -5811,7 +5815,7 @@
     </row>
     <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="9"/>
@@ -5821,7 +5825,7 @@
     </row>
     <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="9"/>
@@ -5829,7 +5833,7 @@
     </row>
     <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="9"/>
@@ -5839,22 +5843,22 @@
     </row>
     <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>13</v>
@@ -5868,16 +5872,16 @@
     </row>
     <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>13</v>
@@ -5891,16 +5895,16 @@
     </row>
     <row r="71" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>321</v>
-      </c>
       <c r="D71" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>13</v>
@@ -5914,7 +5918,7 @@
     </row>
     <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="9"/>
@@ -5922,7 +5926,7 @@
     </row>
     <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
@@ -5941,7 +5945,7 @@
     </row>
     <row r="81" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
@@ -6193,7 +6197,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -6203,27 +6207,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6243,12 +6247,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC205D6-BE31-9346-BD43-4D7C9D386EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965CBF3-D1AD-F049-8108-C47CE6AA288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="343">
   <si>
     <t>Category</t>
   </si>
@@ -2394,6 +2394,37 @@
   </si>
   <si>
     <t xml:space="preserve"> use some space to mark the rows and columns that need to be made zero. Then iterate to mark it. O(1) solution involves placing these markers inside the matrix. Also make sure to traverse top to bottom and left to right so we don't confuse actual zero with cell that we mark zero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class Solution:
+    def isValid(self, s: str) -&gt; bool:
+        stack = []
+        brackets = {'(':')', '{':'}','[':']'}
+        for c in s:
+            if c in brackets:
+                stack.append(c)
+            elif stack and c == brackets[stack.pop()]:
+                continue
+            else:
+                return False
+        return not stack
+        </t>
+  </si>
+  <si>
+    <t>The big idea is about checking if a series of brackets—like parentheses, square brackets, and curly braces—are properly paired and nested. 
+1. **Using a List:** Imagine a list where you keep track of opening brackets as you find them.
+2. **Matching:** When you find a closing bracket, you look at the last opening bracket you added to see if they match.
+3. **Correctness Check:** If all opening brackets have a matching closing bracket by the end, then the arrangement is correct; if not, it's incorrect.
+4. **Final Result:** If the list is empty at the end, it means everything is matched up properly!</t>
+  </si>
+  <si>
+    <t>Daily Temperatures </t>
+  </si>
+  <si>
+    <t>Use a monotonically decreasing stack that hold index and value of element</t>
+  </si>
+  <si>
+    <t>2 sols:</t>
   </si>
 </sst>
 </file>
@@ -2840,7 +2871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D8D0A7-2B23-DB41-A123-92CA1A1D8EFD}">
   <dimension ref="A1:S215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -4954,10 +4985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
-  <dimension ref="A1:S224"/>
+  <dimension ref="A1:S225"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5098,29 +5129,44 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="12">
+        <v>45599</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>282</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="12">
-        <v>45517</v>
+        <v>45598</v>
+      </c>
+      <c r="N10" s="12">
+        <v>45598</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5128,13 +5174,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -5148,41 +5194,40 @@
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>285</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="M12" s="12">
-        <v>45537</v>
+        <v>45517</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="F13" s="4"/>
       <c r="M13" s="12">
-        <v>45527</v>
+        <v>45537</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,20 +5235,20 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="F14" s="4"/>
       <c r="M14" s="12">
-        <v>45534</v>
+        <v>45527</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,19 +5256,20 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E15" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>308</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="J15" s="11"/>
       <c r="M15" s="12">
-        <v>45535</v>
+        <v>45534</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5231,19 +5277,19 @@
         <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="4"/>
       <c r="J16" s="11"/>
       <c r="M16" s="12">
-        <v>45538</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5251,78 +5297,88 @@
         <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>325</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="4"/>
+      <c r="J17" s="11"/>
       <c r="M17" s="12">
-        <v>45543</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="M18" s="12">
+        <v>45543</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="M19" s="12">
-        <v>45545</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="M20" s="12">
-        <v>45546</v>
+        <v>45545</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="M21" s="12">
+        <v>45546</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -5396,35 +5452,37 @@
     </row>
     <row r="29" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>270</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29" s="12">
-        <v>45516</v>
-      </c>
-      <c r="N29" s="12">
-        <v>45597</v>
-      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="12">
+        <v>45516</v>
+      </c>
+      <c r="N30" s="12">
+        <v>45597</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5432,7 +5490,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -5440,9 +5498,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -5450,6 +5506,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
@@ -5459,7 +5516,6 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
@@ -5470,15 +5526,16 @@
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -5494,46 +5551,32 @@
         <v>119</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M39" s="12">
-        <v>45524</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>128</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>294</v>
@@ -5550,22 +5593,22 @@
         <v>128</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M41" s="12">
-        <v>45527</v>
+        <v>45524</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5573,16 +5616,16 @@
         <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
@@ -5595,9 +5638,24 @@
       <c r="A43" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="12">
+        <v>45527</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -5606,8 +5664,6 @@
       <c r="B44" s="2"/>
       <c r="C44" s="9"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -5616,6 +5672,8 @@
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -5623,9 +5681,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -5633,62 +5689,64 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="7"/>
-      <c r="M47" s="12"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48" s="12">
-        <v>45528</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="M49" s="12">
-        <v>45568</v>
+        <v>45528</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="12">
+        <v>45568</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -5713,8 +5771,6 @@
       <c r="B53" s="2"/>
       <c r="C53" s="9"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -5723,6 +5779,8 @@
       <c r="B54" s="2"/>
       <c r="C54" s="9"/>
       <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -5755,12 +5813,10 @@
       <c r="B58" s="2"/>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="9"/>
@@ -5775,16 +5831,16 @@
       <c r="B60" s="2"/>
       <c r="C60" s="9"/>
       <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="9"/>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -5792,9 +5848,9 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -5802,16 +5858,17 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="7"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>228</v>
+      <c r="A64" t="s">
+        <v>213</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="9"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
@@ -5819,9 +5876,8 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
@@ -5830,6 +5886,8 @@
       <c r="B66" s="2"/>
       <c r="C66" s="9"/>
       <c r="D66" s="7"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
@@ -5838,55 +5896,40 @@
       <c r="B67" s="2"/>
       <c r="C67" s="9"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M69" s="12">
-        <v>45535</v>
-      </c>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" t="s">
-        <v>317</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>13</v>
+        <v>314</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M70" s="12">
@@ -5898,18 +5941,18 @@
         <v>243</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="D71" t="s">
+        <v>317</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M71" s="12">
@@ -5918,40 +5961,58 @@
     </row>
     <row r="72" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" s="12">
+        <v>45535</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="6"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="7"/>
     </row>
-    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
     <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="80" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="6" t="s">
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D82" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" t="s">
         <v>13</v>
       </c>
@@ -6031,7 +6092,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="99" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6158,28 +6223,31 @@
     <row r="222" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="223" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="224" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
-    <hyperlink ref="B10" r:id="rId2" display="https://neetcode.io/problems/binary-search" xr:uid="{E807CEB2-E9F7-4142-BE56-6633DCA44C77}"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
+    <hyperlink ref="B11" r:id="rId2" display="https://neetcode.io/problems/binary-search" xr:uid="{E807CEB2-E9F7-4142-BE56-6633DCA44C77}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://neetcode.io/problems/search-2d-matrix" xr:uid="{B3E8B2E1-2889-4041-B7AE-F5280BEA4EB7}"/>
     <hyperlink ref="B2" r:id="rId4" display="https://neetcode.io/problems/permutation-string" xr:uid="{29884F37-AD83-2346-ACEC-43F6F85A0517}"/>
-    <hyperlink ref="B12" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
-    <hyperlink ref="B40" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
-    <hyperlink ref="B41" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
-    <hyperlink ref="B42" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
-    <hyperlink ref="B13" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
-    <hyperlink ref="B48" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://neetcode.io/problems/find-duplicate-integer" xr:uid="{E62E2A58-37D7-3643-917D-7FFF6325DFDD}"/>
-    <hyperlink ref="B69" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
-    <hyperlink ref="B70" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
-    <hyperlink ref="B71" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
-    <hyperlink ref="B16" r:id="rId16" display="https://neetcode.io/problems/reverse-nodes-in-k-group" xr:uid="{7923683B-D2D1-074B-8773-9FF02C2283E6}"/>
-    <hyperlink ref="B17" r:id="rId17" display="https://neetcode.io/problems/lru-cache" xr:uid="{E7F48BC9-E8B5-D448-9EA4-803274B5F533}"/>
-    <hyperlink ref="B19" r:id="rId18" display="https://neetcode.io/problems/subsets" xr:uid="{08A495C4-8CB8-544D-91DE-7F826D567052}"/>
-    <hyperlink ref="B20" r:id="rId19" display="https://neetcode.io/problems/permutations" xr:uid="{4EF07609-D1D6-FC40-B087-6C94F85773CA}"/>
-    <hyperlink ref="B49" r:id="rId20" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{4AB51B69-3378-E646-96DE-EE9099589DBC}"/>
+    <hyperlink ref="B13" r:id="rId5" display="https://neetcode.io/problems/eating-bananas" xr:uid="{4049EAEF-326B-3446-ADAF-95578592609F}"/>
+    <hyperlink ref="B41" r:id="rId6" display="https://neetcode.io/problems/balanced-binary-tree" xr:uid="{14AE724F-E213-4241-98C9-CFC96687A75E}"/>
+    <hyperlink ref="B42" r:id="rId7" display="https://neetcode.io/problems/binary-tree-right-side-view" xr:uid="{859D971B-2CF1-D341-B886-45F2811A9CC0}"/>
+    <hyperlink ref="B43" r:id="rId8" display="https://neetcode.io/problems/count-good-nodes-in-binary-tree" xr:uid="{C0104A18-6E87-9F43-B17D-23ACB3EF46AA}"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://neetcode.io/problems/copy-linked-list-with-random-pointer" xr:uid="{FE67A5B3-78B2-7347-B3AD-4344407B4BF5}"/>
+    <hyperlink ref="B49" r:id="rId10" display="https://neetcode.io/problems/min-cost-climbing-stairs" xr:uid="{8C24C7B2-1EBF-2948-99D3-ABB1C818BC91}"/>
+    <hyperlink ref="B15" r:id="rId11" display="https://neetcode.io/problems/add-two-numbers" xr:uid="{793B611A-0929-4845-8B95-D3DA0FD1386B}"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://neetcode.io/problems/find-duplicate-integer" xr:uid="{E62E2A58-37D7-3643-917D-7FFF6325DFDD}"/>
+    <hyperlink ref="B70" r:id="rId13" display="https://neetcode.io/problems/rotting-fruit" xr:uid="{BCC70CEE-A3BE-3B41-8C6A-C77DE31A3267}"/>
+    <hyperlink ref="B71" r:id="rId14" display="https://neetcode.io/problems/max-area-of-island" xr:uid="{5A62210C-BAD0-0A4A-8370-5D98AE9EB443}"/>
+    <hyperlink ref="B72" r:id="rId15" display="https://neetcode.io/problems/surrounded-regions" xr:uid="{86AEEEA6-AA31-E54C-A753-BD1D2DED0599}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://neetcode.io/problems/reverse-nodes-in-k-group" xr:uid="{7923683B-D2D1-074B-8773-9FF02C2283E6}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://neetcode.io/problems/lru-cache" xr:uid="{E7F48BC9-E8B5-D448-9EA4-803274B5F533}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://neetcode.io/problems/subsets" xr:uid="{08A495C4-8CB8-544D-91DE-7F826D567052}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://neetcode.io/problems/permutations" xr:uid="{4EF07609-D1D6-FC40-B087-6C94F85773CA}"/>
+    <hyperlink ref="B50" r:id="rId20" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{4AB51B69-3378-E646-96DE-EE9099589DBC}"/>
+    <hyperlink ref="B10" r:id="rId21" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{891F700B-D86D-4546-907D-1E430C94BA7F}"/>
+    <hyperlink ref="B9" r:id="rId22" display="https://neetcode.io/problems/daily-temperatures" xr:uid="{F6C74299-E2F9-134C-BFFC-2EC4312B37D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965CBF3-D1AD-F049-8108-C47CE6AA288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B242D-3ADC-BB45-927A-49C808BB7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -2424,7 +2424,7 @@
     <t>Use a monotonically decreasing stack that hold index and value of element</t>
   </si>
   <si>
-    <t>2 sols:</t>
+    <t>2 sols: dp by going in reverse or monotonic stack</t>
   </si>
 </sst>
 </file>
@@ -4988,7 +4988,7 @@
   <dimension ref="A1:S225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B242D-3ADC-BB45-927A-49C808BB7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2703CC-AFE5-584C-B4F7-2323C5E74200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="345">
   <si>
     <t>Category</t>
   </si>
@@ -2425,6 +2425,12 @@
   </si>
   <si>
     <t>2 sols: dp by going in reverse or monotonic stack</t>
+  </si>
+  <si>
+    <t>Course Schedule </t>
+  </si>
+  <si>
+    <t>tpological sort dfs in a checklist like approach</t>
   </si>
 </sst>
 </file>
@@ -4985,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
-  <dimension ref="A1:S225"/>
+  <dimension ref="A1:S226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5984,40 +5990,51 @@
     </row>
     <row r="73" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="F73" s="4"/>
+      <c r="M73" s="12">
+        <v>45610</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>255</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="9"/>
       <c r="D74" s="7"/>
     </row>
-    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+    </row>
     <row r="76" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="77" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    <row r="81" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D82" s="6" t="s">
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D83" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" t="s">
         <v>13</v>
       </c>
@@ -6097,7 +6114,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="100" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="7:7" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6224,6 +6245,7 @@
     <row r="223" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="224" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://neetcode.io/problems/two-integer-sum-ii" xr:uid="{E20B4E99-274F-F94E-934F-B32C28ECB826}"/>
@@ -6248,6 +6270,7 @@
     <hyperlink ref="B50" r:id="rId20" display="https://neetcode.io/problems/maximum-product-subarray" xr:uid="{4AB51B69-3378-E646-96DE-EE9099589DBC}"/>
     <hyperlink ref="B10" r:id="rId21" display="https://neetcode.io/problems/validate-parentheses" xr:uid="{891F700B-D86D-4546-907D-1E430C94BA7F}"/>
     <hyperlink ref="B9" r:id="rId22" display="https://neetcode.io/problems/daily-temperatures" xr:uid="{F6C74299-E2F9-134C-BFFC-2EC4312B37D7}"/>
+    <hyperlink ref="B73" r:id="rId23" display="https://neetcode.io/problems/course-schedule" xr:uid="{408CB3A3-BBFD-624F-ACE2-8C813CA064D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2703CC-AFE5-584C-B4F7-2323C5E74200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08413CFE-CB05-9044-9749-7AD523F0DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="23360" windowHeight="14660" activeTab="1" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Blind75" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="358">
   <si>
     <t>Category</t>
   </si>
@@ -2431,6 +2431,45 @@
   </si>
   <si>
     <t>tpological sort dfs in a checklist like approach</t>
+  </si>
+  <si>
+    <t>boyer moore algorithm</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Intuition</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Niche</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Tree BFS</t>
+  </si>
+  <si>
+    <t>Tree DFS</t>
+  </si>
+  <si>
+    <t>Tree DFS(iterative)</t>
+  </si>
+  <si>
+    <t>DP -Regular Matching Expression</t>
   </si>
 </sst>
 </file>
@@ -4993,7 +5032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51B79D9-781F-B24C-B746-F026FC84CF77}">
   <dimension ref="A1:S226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
@@ -6278,47 +6317,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6D4F37-37E3-1441-8484-620D31E44115}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+      <c r="R1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E3" t="s">
+        <v>350</v>
+      </c>
+      <c r="R3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" t="s">
+        <v>350</v>
+      </c>
+      <c r="R4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" t="s">
+        <v>351</v>
+      </c>
+      <c r="R5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>353</v>
+      </c>
+      <c r="R7" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" t="s">
+        <v>352</v>
+      </c>
+      <c r="R8" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08413CFE-CB05-9044-9749-7AD523F0DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5FB1B8-64EC-7744-B2D8-0EBD5F7D8060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="359">
   <si>
     <t>Category</t>
   </si>
@@ -2470,6 +2470,9 @@
   </si>
   <si>
     <t>DP -Regular Matching Expression</t>
+  </si>
+  <si>
+    <t>manacher's algorithm</t>
   </si>
 </sst>
 </file>
@@ -6317,10 +6320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6D4F37-37E3-1441-8484-620D31E44115}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6411,6 +6414,11 @@
       </c>
       <c r="R8" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/DSA-sheet/DSA-Sheet.xlsx
+++ b/DSA-sheet/DSA-Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhinavsivanandhan/Downloads/the-ab-repositories/DSA-Prep/DSA-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5FB1B8-64EC-7744-B2D8-0EBD5F7D8060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0DBBF-FBB5-384E-BAD3-5C1CDD446D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{ABD715AC-0ABD-514F-973B-BA2370187A94}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="360">
   <si>
     <t>Category</t>
   </si>
@@ -2473,6 +2473,9 @@
   </si>
   <si>
     <t>manacher's algorithm</t>
+  </si>
+  <si>
+    <t>https://medium.com/@thabheloduve/here-are-one-line-solutions-for-leetcode-in-python-6e9727acc43d</t>
   </si>
 </sst>
 </file>
@@ -6323,7 +6326,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6419,6 +6422,9 @@
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>358</v>
+      </c>
+      <c r="R9" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
